--- a/JupyterNotebooks/AvgHW/Gamma1F-HW10.xlsx
+++ b/JupyterNotebooks/AvgHW/Gamma1F-HW10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,28 +82,28 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
     <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +555,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +564,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,28 +626,28 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.07381763094648</v>
+        <v>0.9601895350780446</v>
       </c>
       <c r="D3">
-        <v>0.9601895350780444</v>
+        <v>1.017957790236212</v>
       </c>
       <c r="E3">
-        <v>1.017957790236212</v>
+        <v>0.9601895350780446</v>
       </c>
       <c r="F3">
         <v>1.07381763094648</v>
       </c>
       <c r="G3">
+        <v>0.9610370078954977</v>
+      </c>
+      <c r="H3">
         <v>0.9755725037233601</v>
       </c>
-      <c r="H3">
-        <v>0.9610370078954977</v>
-      </c>
       <c r="I3">
+        <v>1.07381763094648</v>
+      </c>
+      <c r="J3">
         <v>1.020412262256542</v>
-      </c>
-      <c r="J3">
-        <v>0.9601895350780444</v>
       </c>
       <c r="K3">
         <v>1.07381763094648</v>
@@ -704,13 +656,13 @@
         <v>1.017957790236212</v>
       </c>
       <c r="M3">
-        <v>0.9890736626571279</v>
+        <v>0.9890736626571281</v>
       </c>
       <c r="N3">
-        <v>0.9890736626571279</v>
+        <v>0.9890736626571281</v>
       </c>
       <c r="O3">
-        <v>0.9797281110699179</v>
+        <v>0.979728111069918</v>
       </c>
       <c r="P3">
         <v>1.017321652086912</v>
@@ -728,7 +680,7 @@
         <v>1.001497788356023</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,28 +688,28 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.142582386995078</v>
+        <v>0.9215080898239538</v>
       </c>
       <c r="D4">
+        <v>1.030523892603836</v>
+      </c>
+      <c r="E4">
         <v>0.9215080898239538</v>
-      </c>
-      <c r="E4">
-        <v>1.030523892603836</v>
       </c>
       <c r="F4">
         <v>1.142582386995078</v>
       </c>
       <c r="G4">
+        <v>0.9242174231966434</v>
+      </c>
+      <c r="H4">
         <v>0.9586446249200699</v>
       </c>
-      <c r="H4">
-        <v>0.9242174231966434</v>
-      </c>
       <c r="I4">
+        <v>1.142582386995078</v>
+      </c>
+      <c r="J4">
         <v>1.039788421852951</v>
-      </c>
-      <c r="J4">
-        <v>0.9215080898239538</v>
       </c>
       <c r="K4">
         <v>1.142582386995078</v>
@@ -766,13 +718,13 @@
         <v>1.030523892603836</v>
       </c>
       <c r="M4">
-        <v>0.976015991213895</v>
+        <v>0.9760159912138952</v>
       </c>
       <c r="N4">
-        <v>0.976015991213895</v>
+        <v>0.9760159912138952</v>
       </c>
       <c r="O4">
-        <v>0.9587498018748111</v>
+        <v>0.9587498018748112</v>
       </c>
       <c r="P4">
         <v>1.031538123140956</v>
@@ -790,7 +742,7 @@
         <v>1.002877473232089</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,28 +750,28 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.279068129654216</v>
+        <v>0.8565830899716373</v>
       </c>
       <c r="D5">
+        <v>1.06470269230296</v>
+      </c>
+      <c r="E5">
         <v>0.8565830899716373</v>
-      </c>
-      <c r="E5">
-        <v>1.06470269230296</v>
       </c>
       <c r="F5">
         <v>1.279068129654216</v>
       </c>
       <c r="G5">
+        <v>0.8591990023733468</v>
+      </c>
+      <c r="H5">
         <v>0.9371532851348956</v>
       </c>
-      <c r="H5">
-        <v>0.8591990023733468</v>
-      </c>
       <c r="I5">
+        <v>1.279068129654216</v>
+      </c>
+      <c r="J5">
         <v>1.087160497681665</v>
-      </c>
-      <c r="J5">
-        <v>0.8565830899716373</v>
       </c>
       <c r="K5">
         <v>1.279068129654216</v>
@@ -852,7 +804,7 @@
         <v>1.01397778285312</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,28 +812,28 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.47127204172989</v>
+        <v>0.7483519676763585</v>
       </c>
       <c r="D6">
+        <v>1.189195082091752</v>
+      </c>
+      <c r="E6">
         <v>0.7483519676763585</v>
-      </c>
-      <c r="E6">
-        <v>1.189195082091752</v>
       </c>
       <c r="F6">
         <v>1.47127204172989</v>
       </c>
       <c r="G6">
+        <v>0.8250630120593778</v>
+      </c>
+      <c r="H6">
         <v>0.8439437105659937</v>
       </c>
-      <c r="H6">
-        <v>0.825063012059378</v>
-      </c>
       <c r="I6">
+        <v>1.47127204172989</v>
+      </c>
+      <c r="J6">
         <v>1.127865945223569</v>
-      </c>
-      <c r="J6">
-        <v>0.7483519676763585</v>
       </c>
       <c r="K6">
         <v>1.47127204172989</v>
@@ -914,7 +866,7 @@
         <v>1.034281959891157</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,34 +874,34 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000000682939784</v>
+        <v>0.9986870185421099</v>
       </c>
       <c r="D7">
-        <v>0.9986870185421101</v>
+        <v>0.9998365226127056</v>
       </c>
       <c r="E7">
-        <v>0.9998365226127055</v>
+        <v>0.9986870185421099</v>
       </c>
       <c r="F7">
-        <v>1.000000682939784</v>
+        <v>1.000000682939785</v>
       </c>
       <c r="G7">
+        <v>0.9986132701353594</v>
+      </c>
+      <c r="H7">
         <v>1.010546527182583</v>
       </c>
-      <c r="H7">
-        <v>0.9986132701353588</v>
-      </c>
       <c r="I7">
-        <v>0.9993504861815077</v>
+        <v>1.000000682939785</v>
       </c>
       <c r="J7">
-        <v>0.9986870185421101</v>
+        <v>0.9993504861815073</v>
       </c>
       <c r="K7">
-        <v>1.000000682939784</v>
+        <v>1.000000682939785</v>
       </c>
       <c r="L7">
-        <v>0.9998365226127055</v>
+        <v>0.9998365226127056</v>
       </c>
       <c r="M7">
         <v>0.9992617705774078</v>
@@ -958,25 +910,25 @@
         <v>0.9992617705774078</v>
       </c>
       <c r="O7">
-        <v>0.9990456037633915</v>
+        <v>0.9990456037633916</v>
       </c>
       <c r="P7">
-        <v>0.9995080746981998</v>
+        <v>0.9995080746982001</v>
       </c>
       <c r="Q7">
-        <v>0.9995080746981998</v>
+        <v>0.9995080746982001</v>
       </c>
       <c r="R7">
-        <v>0.9996312267585958</v>
+        <v>0.9996312267585963</v>
       </c>
       <c r="S7">
-        <v>0.9996312267585958</v>
+        <v>0.9996312267585963</v>
       </c>
       <c r="T7">
         <v>1.001172417932342</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,61 +936,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.001313324131964</v>
+        <v>0.9958652497436996</v>
       </c>
       <c r="D8">
+        <v>0.9998190811639077</v>
+      </c>
+      <c r="E8">
         <v>0.9958652497436996</v>
       </c>
-      <c r="E8">
-        <v>0.9998190811639079</v>
-      </c>
       <c r="F8">
-        <v>1.001313324131964</v>
+        <v>1.001313324131963</v>
       </c>
       <c r="G8">
-        <v>1.023818690760411</v>
+        <v>0.996882799224927</v>
       </c>
       <c r="H8">
-        <v>0.9968827992249266</v>
+        <v>1.023818690760413</v>
       </c>
       <c r="I8">
-        <v>0.9986663006825305</v>
+        <v>1.001313324131963</v>
       </c>
       <c r="J8">
-        <v>0.9958652497436996</v>
+        <v>0.9986663006825309</v>
       </c>
       <c r="K8">
-        <v>1.001313324131964</v>
+        <v>1.001313324131963</v>
       </c>
       <c r="L8">
-        <v>0.9998190811639079</v>
+        <v>0.9998190811639077</v>
       </c>
       <c r="M8">
-        <v>0.9978421654538038</v>
+        <v>0.9978421654538037</v>
       </c>
       <c r="N8">
-        <v>0.9978421654538038</v>
+        <v>0.9978421654538037</v>
       </c>
       <c r="O8">
         <v>0.9975223767108448</v>
       </c>
       <c r="P8">
-        <v>0.9989992183465238</v>
+        <v>0.9989992183465235</v>
       </c>
       <c r="Q8">
-        <v>0.9989992183465238</v>
+        <v>0.9989992183465234</v>
       </c>
       <c r="R8">
-        <v>0.9995777447928837</v>
+        <v>0.9995777447928833</v>
       </c>
       <c r="S8">
-        <v>0.9995777447928837</v>
+        <v>0.9995777447928833</v>
       </c>
       <c r="T8">
-        <v>1.002727574284573</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>1.002727574284574</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,40 +998,40 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.005491780791936</v>
+        <v>0.9939060986677778</v>
       </c>
       <c r="D9">
+        <v>0.9995920290974556</v>
+      </c>
+      <c r="E9">
         <v>0.9939060986677778</v>
-      </c>
-      <c r="E9">
-        <v>0.9995920290974557</v>
       </c>
       <c r="F9">
         <v>1.005491780791936</v>
       </c>
       <c r="G9">
+        <v>0.9948249117223862</v>
+      </c>
+      <c r="H9">
         <v>1.028071609414475</v>
       </c>
-      <c r="H9">
-        <v>0.9948249117223862</v>
-      </c>
       <c r="I9">
+        <v>1.005491780791936</v>
+      </c>
+      <c r="J9">
         <v>0.9983785899873611</v>
-      </c>
-      <c r="J9">
-        <v>0.9939060986677778</v>
       </c>
       <c r="K9">
         <v>1.005491780791936</v>
       </c>
       <c r="L9">
-        <v>0.9995920290974557</v>
+        <v>0.9995920290974556</v>
       </c>
       <c r="M9">
-        <v>0.9967490638826167</v>
+        <v>0.9967490638826166</v>
       </c>
       <c r="N9">
-        <v>0.9967490638826167</v>
+        <v>0.9967490638826166</v>
       </c>
       <c r="O9">
         <v>0.9961076798292066</v>
@@ -1088,7 +1040,7 @@
         <v>0.9996633028523897</v>
       </c>
       <c r="Q9">
-        <v>0.9996633028523898</v>
+        <v>0.9996633028523897</v>
       </c>
       <c r="R9">
         <v>1.001120422337276</v>
@@ -1100,7 +1052,7 @@
         <v>1.003377503280232</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,43 +1060,43 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.007925335539764</v>
+        <v>0.9890394651328582</v>
       </c>
       <c r="D10">
+        <v>0.9983108581774847</v>
+      </c>
+      <c r="E10">
         <v>0.9890394651328582</v>
-      </c>
-      <c r="E10">
-        <v>0.9983108581774848</v>
       </c>
       <c r="F10">
         <v>1.007925335539764</v>
       </c>
       <c r="G10">
+        <v>0.9891748496048505</v>
+      </c>
+      <c r="H10">
         <v>1.069118188173494</v>
       </c>
-      <c r="H10">
-        <v>0.9891748496048505</v>
-      </c>
       <c r="I10">
+        <v>1.007925335539764</v>
+      </c>
+      <c r="J10">
         <v>0.9956723852817739</v>
-      </c>
-      <c r="J10">
-        <v>0.9890394651328582</v>
       </c>
       <c r="K10">
         <v>1.007925335539764</v>
       </c>
       <c r="L10">
-        <v>0.9983108581774848</v>
+        <v>0.9983108581774847</v>
       </c>
       <c r="M10">
-        <v>0.9936751616551716</v>
+        <v>0.9936751616551714</v>
       </c>
       <c r="N10">
-        <v>0.9936751616551716</v>
+        <v>0.9936751616551714</v>
       </c>
       <c r="O10">
-        <v>0.992175057638398</v>
+        <v>0.9921750576383978</v>
       </c>
       <c r="P10">
         <v>0.9984252196167024</v>
@@ -1162,7 +1114,7 @@
         <v>1.008206846985038</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,28 +1122,28 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.022234647396581</v>
+        <v>0.9792348864440279</v>
       </c>
       <c r="D11">
-        <v>0.979234886444028</v>
+        <v>0.9967384527386056</v>
       </c>
       <c r="E11">
-        <v>0.9967384527386056</v>
+        <v>0.9792348864440279</v>
       </c>
       <c r="F11">
         <v>1.022234647396581</v>
       </c>
       <c r="G11">
+        <v>0.9817380648883498</v>
+      </c>
+      <c r="H11">
         <v>1.100564402484872</v>
       </c>
-      <c r="H11">
-        <v>0.9817380648883496</v>
-      </c>
       <c r="I11">
+        <v>1.022234647396581</v>
+      </c>
+      <c r="J11">
         <v>0.9946650368647193</v>
-      </c>
-      <c r="J11">
-        <v>0.979234886444028</v>
       </c>
       <c r="K11">
         <v>1.022234647396581</v>
@@ -1200,16 +1152,16 @@
         <v>0.9967384527386056</v>
       </c>
       <c r="M11">
-        <v>0.9879866695913169</v>
+        <v>0.9879866695913168</v>
       </c>
       <c r="N11">
-        <v>0.9879866695913169</v>
+        <v>0.9879866695913168</v>
       </c>
       <c r="O11">
         <v>0.9859038013569945</v>
       </c>
       <c r="P11">
-        <v>0.9994026621930717</v>
+        <v>0.9994026621930715</v>
       </c>
       <c r="Q11">
         <v>0.9994026621930715</v>
@@ -1224,7 +1176,7 @@
         <v>1.012529248469526</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,40 +1184,40 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.532267258639386</v>
+        <v>0.8486630064466159</v>
       </c>
       <c r="D12">
+        <v>0.669356081706832</v>
+      </c>
+      <c r="E12">
         <v>0.8486630064466159</v>
       </c>
-      <c r="E12">
-        <v>0.6693560817068323</v>
-      </c>
       <c r="F12">
-        <v>1.532267258639386</v>
+        <v>1.532267258639387</v>
       </c>
       <c r="G12">
-        <v>0.08048465139390706</v>
+        <v>1.230359668113492</v>
       </c>
       <c r="H12">
-        <v>1.230359668113492</v>
+        <v>0.08048465139390691</v>
       </c>
       <c r="I12">
-        <v>0.9583033382359375</v>
+        <v>1.532267258639387</v>
       </c>
       <c r="J12">
-        <v>0.8486630064466159</v>
+        <v>0.9583033382359376</v>
       </c>
       <c r="K12">
-        <v>1.532267258639386</v>
+        <v>1.532267258639387</v>
       </c>
       <c r="L12">
-        <v>0.6693560817068323</v>
+        <v>0.669356081706832</v>
       </c>
       <c r="M12">
-        <v>0.7590095440767241</v>
+        <v>0.7590095440767239</v>
       </c>
       <c r="N12">
-        <v>0.7590095440767241</v>
+        <v>0.7590095440767239</v>
       </c>
       <c r="O12">
         <v>0.9161262520889801</v>
@@ -1286,7 +1238,7 @@
         <v>0.886572334089362</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,49 +1246,49 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.7370958989984405</v>
+        <v>1.430676343334622</v>
       </c>
       <c r="D13">
-        <v>1.430676343334623</v>
+        <v>1.136867111548494</v>
       </c>
       <c r="E13">
-        <v>1.136867111548494</v>
+        <v>1.430676343334622</v>
       </c>
       <c r="F13">
-        <v>0.7370958989984405</v>
+        <v>0.7370958989984403</v>
       </c>
       <c r="G13">
-        <v>1.069987043572601</v>
+        <v>0.9647252935279279</v>
       </c>
       <c r="H13">
-        <v>0.9647252935279274</v>
+        <v>1.0699870435726</v>
       </c>
       <c r="I13">
-        <v>0.9929843792938183</v>
+        <v>0.7370958989984403</v>
       </c>
       <c r="J13">
-        <v>1.430676343334623</v>
+        <v>0.9929843792938187</v>
       </c>
       <c r="K13">
-        <v>0.7370958989984405</v>
+        <v>0.7370958989984403</v>
       </c>
       <c r="L13">
         <v>1.136867111548494</v>
       </c>
       <c r="M13">
-        <v>1.283771727441559</v>
+        <v>1.283771727441558</v>
       </c>
       <c r="N13">
-        <v>1.283771727441559</v>
+        <v>1.283771727441558</v>
       </c>
       <c r="O13">
         <v>1.177422916137015</v>
       </c>
       <c r="P13">
-        <v>1.101546451293853</v>
+        <v>1.101546451293852</v>
       </c>
       <c r="Q13">
-        <v>1.101546451293853</v>
+        <v>1.101546451293852</v>
       </c>
       <c r="R13">
         <v>1.010433813219999</v>
@@ -1348,7 +1300,7 @@
         <v>1.055389345045984</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,40 +1308,40 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.427136596211692</v>
+        <v>1.185810061099715</v>
       </c>
       <c r="D14">
+        <v>0.6377965460857161</v>
+      </c>
+      <c r="E14">
         <v>1.185810061099715</v>
       </c>
-      <c r="E14">
-        <v>0.6377965460857163</v>
-      </c>
       <c r="F14">
-        <v>1.427136596211692</v>
+        <v>1.427136596211693</v>
       </c>
       <c r="G14">
-        <v>0.09327136695317693</v>
+        <v>1.207130680221456</v>
       </c>
       <c r="H14">
-        <v>1.207130680221456</v>
+        <v>0.09327136695317681</v>
       </c>
       <c r="I14">
-        <v>0.9867270985990667</v>
+        <v>1.427136596211693</v>
       </c>
       <c r="J14">
-        <v>1.185810061099715</v>
+        <v>0.9867270985990664</v>
       </c>
       <c r="K14">
-        <v>1.427136596211692</v>
+        <v>1.427136596211693</v>
       </c>
       <c r="L14">
-        <v>0.6377965460857163</v>
+        <v>0.6377965460857161</v>
       </c>
       <c r="M14">
-        <v>0.9118033035927156</v>
+        <v>0.9118033035927153</v>
       </c>
       <c r="N14">
-        <v>0.9118033035927156</v>
+        <v>0.9118033035927153</v>
       </c>
       <c r="O14">
         <v>1.010245762468962</v>
@@ -1407,10 +1359,10 @@
         <v>1.169469949902204</v>
       </c>
       <c r="T14">
-        <v>0.922978724861804</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
+        <v>0.9229787248618037</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,28 +1370,28 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.6604641208295891</v>
+        <v>1.057916784435557</v>
       </c>
       <c r="D15">
+        <v>1.149725554810864</v>
+      </c>
+      <c r="E15">
         <v>1.057916784435557</v>
-      </c>
-      <c r="E15">
-        <v>1.149725554810864</v>
       </c>
       <c r="F15">
         <v>0.6604641208295891</v>
       </c>
       <c r="G15">
+        <v>1.076653969790704</v>
+      </c>
+      <c r="H15">
         <v>1.138874882531725</v>
       </c>
-      <c r="H15">
-        <v>1.076653969790704</v>
-      </c>
       <c r="I15">
+        <v>0.6604641208295891</v>
+      </c>
+      <c r="J15">
         <v>0.9407419295904441</v>
-      </c>
-      <c r="J15">
-        <v>1.057916784435557</v>
       </c>
       <c r="K15">
         <v>0.6604641208295891</v>
@@ -1457,7 +1409,7 @@
         <v>1.094765436345708</v>
       </c>
       <c r="P15">
-        <v>0.9560354866920037</v>
+        <v>0.9560354866920036</v>
       </c>
       <c r="Q15">
         <v>0.9560354866920036</v>
@@ -1472,7 +1424,7 @@
         <v>1.004062873664814</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9847925297779823</v>
+        <v>0.1980891115994857</v>
       </c>
       <c r="D16">
-        <v>1.000290501809154</v>
+        <v>1.295016450504854</v>
       </c>
       <c r="E16">
-        <v>1.007374740102396</v>
+        <v>0.1980891115994857</v>
       </c>
       <c r="F16">
-        <v>0.9847925297779823</v>
+        <v>2.261856353502546</v>
       </c>
       <c r="G16">
-        <v>1.009915615893193</v>
+        <v>0.2904602916635345</v>
       </c>
       <c r="H16">
-        <v>1.000655066696593</v>
+        <v>0.6913375317328532</v>
       </c>
       <c r="I16">
-        <v>1.000338537247515</v>
+        <v>2.261856353502546</v>
       </c>
       <c r="J16">
-        <v>1.000290501809154</v>
+        <v>1.378951998813785</v>
       </c>
       <c r="K16">
-        <v>0.9847925297779823</v>
+        <v>2.261856353502546</v>
       </c>
       <c r="L16">
-        <v>1.007374740102396</v>
+        <v>1.295016450504854</v>
       </c>
       <c r="M16">
-        <v>1.003832620955775</v>
+        <v>0.7465527810521697</v>
       </c>
       <c r="N16">
-        <v>1.003832620955775</v>
+        <v>0.7465527810521697</v>
       </c>
       <c r="O16">
-        <v>1.002773436202714</v>
+        <v>0.594521951255958</v>
       </c>
       <c r="P16">
-        <v>0.9974859238965106</v>
+        <v>1.251653971868962</v>
       </c>
       <c r="Q16">
-        <v>0.9974859238965107</v>
+        <v>1.251653971868962</v>
       </c>
       <c r="R16">
-        <v>0.9943125753668787</v>
+        <v>1.504204567277358</v>
       </c>
       <c r="S16">
-        <v>0.9943125753668787</v>
+        <v>1.504204567277358</v>
       </c>
       <c r="T16">
-        <v>1.000561165254472</v>
+        <v>1.019285289636176</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.021469815373089</v>
+        <v>0.394407098936947</v>
       </c>
       <c r="D17">
-        <v>0.9950721127775199</v>
+        <v>1.221292979463114</v>
       </c>
       <c r="E17">
-        <v>0.9853734091398345</v>
+        <v>0.394407098936947</v>
       </c>
       <c r="F17">
-        <v>1.021469815373089</v>
+        <v>1.809387755356962</v>
       </c>
       <c r="G17">
-        <v>1.006918061657909</v>
+        <v>0.4664306250389018</v>
       </c>
       <c r="H17">
-        <v>0.9971536828588046</v>
+        <v>1.091111004308313</v>
       </c>
       <c r="I17">
-        <v>0.9968616982511735</v>
+        <v>1.809387755356962</v>
       </c>
       <c r="J17">
-        <v>0.9950721127775199</v>
+        <v>1.254440694848495</v>
       </c>
       <c r="K17">
-        <v>1.021469815373089</v>
+        <v>1.809387755356962</v>
       </c>
       <c r="L17">
-        <v>0.9853734091398345</v>
+        <v>1.221292979463114</v>
       </c>
       <c r="M17">
-        <v>0.9902227609586772</v>
+        <v>0.8078500392000306</v>
       </c>
       <c r="N17">
-        <v>0.9902227609586772</v>
+        <v>0.8078500392000306</v>
       </c>
       <c r="O17">
-        <v>0.9925330682587198</v>
+        <v>0.6940435678129876</v>
       </c>
       <c r="P17">
-        <v>1.000638445763481</v>
+        <v>1.141695944585674</v>
       </c>
       <c r="Q17">
-        <v>1.000638445763481</v>
+        <v>1.141695944585674</v>
       </c>
       <c r="R17">
-        <v>1.005846288165883</v>
+        <v>1.308618897278496</v>
       </c>
       <c r="S17">
-        <v>1.005846288165883</v>
+        <v>1.308618897278496</v>
       </c>
       <c r="T17">
-        <v>1.000474796676388</v>
+        <v>1.039511692992122</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.00392947744879</v>
+        <v>0.7863028775132678</v>
       </c>
       <c r="D18">
-        <v>0.9929689349309255</v>
+        <v>1.074092204668683</v>
       </c>
       <c r="E18">
-        <v>1.031089238639817</v>
+        <v>0.7863028775132678</v>
       </c>
       <c r="F18">
-        <v>1.00392947744879</v>
+        <v>0.9126760587246583</v>
       </c>
       <c r="G18">
-        <v>1.01035984235982</v>
+        <v>0.8178241052163184</v>
       </c>
       <c r="H18">
-        <v>0.9868862291682504</v>
+        <v>1.873934503390532</v>
       </c>
       <c r="I18">
-        <v>1.008750642560268</v>
+        <v>0.9126760587246583</v>
       </c>
       <c r="J18">
-        <v>0.9929689349309255</v>
+        <v>1.006893874635245</v>
       </c>
       <c r="K18">
-        <v>1.00392947744879</v>
+        <v>0.9126760587246583</v>
       </c>
       <c r="L18">
-        <v>1.031089238639817</v>
+        <v>1.074092204668683</v>
       </c>
       <c r="M18">
-        <v>1.012029086785371</v>
+        <v>0.9301975410909755</v>
       </c>
       <c r="N18">
-        <v>1.012029086785371</v>
+        <v>0.9301975410909755</v>
       </c>
       <c r="O18">
-        <v>1.003648134246331</v>
+        <v>0.8927397291327566</v>
       </c>
       <c r="P18">
-        <v>1.009329217006511</v>
+        <v>0.9243570469688698</v>
       </c>
       <c r="Q18">
-        <v>1.009329217006511</v>
+        <v>0.9243570469688698</v>
       </c>
       <c r="R18">
-        <v>1.007979282117081</v>
+        <v>0.9214367999078169</v>
       </c>
       <c r="S18">
-        <v>1.007979282117081</v>
+        <v>0.9214367999078169</v>
       </c>
       <c r="T18">
-        <v>1.005664060851312</v>
+        <v>1.078620604024784</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,58 +1618,306 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>0.8872120800598363</v>
+      </c>
+      <c r="D19">
+        <v>1.062823118384571</v>
+      </c>
+      <c r="E19">
+        <v>0.8872120800598363</v>
+      </c>
+      <c r="F19">
+        <v>0.8471499312244216</v>
+      </c>
+      <c r="G19">
+        <v>0.7887773159678759</v>
+      </c>
+      <c r="H19">
+        <v>2.147917874353528</v>
+      </c>
+      <c r="I19">
+        <v>0.8471499312244216</v>
+      </c>
+      <c r="J19">
+        <v>0.9823754394073977</v>
+      </c>
+      <c r="K19">
+        <v>0.8471499312244216</v>
+      </c>
+      <c r="L19">
+        <v>1.062823118384571</v>
+      </c>
+      <c r="M19">
+        <v>0.9750175992222037</v>
+      </c>
+      <c r="N19">
+        <v>0.9750175992222037</v>
+      </c>
+      <c r="O19">
+        <v>0.9129375048040944</v>
+      </c>
+      <c r="P19">
+        <v>0.932395043222943</v>
+      </c>
+      <c r="Q19">
+        <v>0.932395043222943</v>
+      </c>
+      <c r="R19">
+        <v>0.9110837652233126</v>
+      </c>
+      <c r="S19">
+        <v>0.9110837652233126</v>
+      </c>
+      <c r="T19">
+        <v>1.119375959899605</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.000290501809154</v>
+      </c>
+      <c r="D20">
+        <v>1.007374740102396</v>
+      </c>
+      <c r="E20">
+        <v>1.000290501809154</v>
+      </c>
+      <c r="F20">
+        <v>0.9847925297779825</v>
+      </c>
+      <c r="G20">
+        <v>1.000655066696593</v>
+      </c>
+      <c r="H20">
+        <v>1.009915615893193</v>
+      </c>
+      <c r="I20">
+        <v>0.9847925297779825</v>
+      </c>
+      <c r="J20">
+        <v>1.000338537247515</v>
+      </c>
+      <c r="K20">
+        <v>0.9847925297779825</v>
+      </c>
+      <c r="L20">
+        <v>1.007374740102396</v>
+      </c>
+      <c r="M20">
+        <v>1.003832620955775</v>
+      </c>
+      <c r="N20">
+        <v>1.003832620955775</v>
+      </c>
+      <c r="O20">
+        <v>1.002773436202715</v>
+      </c>
+      <c r="P20">
+        <v>0.9974859238965109</v>
+      </c>
+      <c r="Q20">
+        <v>0.9974859238965109</v>
+      </c>
+      <c r="R20">
+        <v>0.9943125753668788</v>
+      </c>
+      <c r="S20">
+        <v>0.9943125753668788</v>
+      </c>
+      <c r="T20">
+        <v>1.000561165254472</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9950721127775189</v>
+      </c>
+      <c r="D21">
+        <v>0.9853734091398337</v>
+      </c>
+      <c r="E21">
+        <v>0.9950721127775189</v>
+      </c>
+      <c r="F21">
+        <v>1.021469815373089</v>
+      </c>
+      <c r="G21">
+        <v>0.9971536828588041</v>
+      </c>
+      <c r="H21">
+        <v>1.006918061657909</v>
+      </c>
+      <c r="I21">
+        <v>1.021469815373089</v>
+      </c>
+      <c r="J21">
+        <v>0.996861698251174</v>
+      </c>
+      <c r="K21">
+        <v>1.021469815373089</v>
+      </c>
+      <c r="L21">
+        <v>0.9853734091398337</v>
+      </c>
+      <c r="M21">
+        <v>0.9902227609586763</v>
+      </c>
+      <c r="N21">
+        <v>0.9902227609586763</v>
+      </c>
+      <c r="O21">
+        <v>0.9925330682587189</v>
+      </c>
+      <c r="P21">
+        <v>1.00063844576348</v>
+      </c>
+      <c r="Q21">
+        <v>1.00063844576348</v>
+      </c>
+      <c r="R21">
+        <v>1.005846288165883</v>
+      </c>
+      <c r="S21">
+        <v>1.005846288165883</v>
+      </c>
+      <c r="T21">
+        <v>1.000474796676388</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9929689349309244</v>
+      </c>
+      <c r="D22">
+        <v>1.031089238639818</v>
+      </c>
+      <c r="E22">
+        <v>0.9929689349309244</v>
+      </c>
+      <c r="F22">
+        <v>1.003929477448791</v>
+      </c>
+      <c r="G22">
+        <v>0.9868862291682501</v>
+      </c>
+      <c r="H22">
+        <v>1.010359842359819</v>
+      </c>
+      <c r="I22">
+        <v>1.003929477448791</v>
+      </c>
+      <c r="J22">
+        <v>1.008750642560268</v>
+      </c>
+      <c r="K22">
+        <v>1.003929477448791</v>
+      </c>
+      <c r="L22">
+        <v>1.031089238639818</v>
+      </c>
+      <c r="M22">
+        <v>1.012029086785371</v>
+      </c>
+      <c r="N22">
+        <v>1.012029086785371</v>
+      </c>
+      <c r="O22">
+        <v>1.003648134246331</v>
+      </c>
+      <c r="P22">
+        <v>1.009329217006511</v>
+      </c>
+      <c r="Q22">
+        <v>1.009329217006511</v>
+      </c>
+      <c r="R22">
+        <v>1.007979282117081</v>
+      </c>
+      <c r="S22">
+        <v>1.007979282117081</v>
+      </c>
+      <c r="T22">
+        <v>1.005664060851312</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9692386334863592</v>
+      </c>
+      <c r="D23">
+        <v>1.106552288688772</v>
+      </c>
+      <c r="E23">
+        <v>0.9692386334863592</v>
+      </c>
+      <c r="F23">
         <v>0.890923512350164</v>
       </c>
-      <c r="D19">
-        <v>0.9692386334863589</v>
-      </c>
-      <c r="E19">
+      <c r="G23">
+        <v>0.9745991205876131</v>
+      </c>
+      <c r="H23">
+        <v>1.002329848046041</v>
+      </c>
+      <c r="I23">
+        <v>0.890923512350164</v>
+      </c>
+      <c r="J23">
+        <v>1.051791584055703</v>
+      </c>
+      <c r="K23">
+        <v>0.890923512350164</v>
+      </c>
+      <c r="L23">
         <v>1.106552288688772</v>
       </c>
-      <c r="F19">
-        <v>0.890923512350164</v>
-      </c>
-      <c r="G19">
-        <v>1.002329848046041</v>
-      </c>
-      <c r="H19">
-        <v>0.9745991205876131</v>
-      </c>
-      <c r="I19">
-        <v>1.051791584055703</v>
-      </c>
-      <c r="J19">
-        <v>0.9692386334863589</v>
-      </c>
-      <c r="K19">
-        <v>0.890923512350164</v>
-      </c>
-      <c r="L19">
-        <v>1.106552288688772</v>
-      </c>
-      <c r="M19">
-        <v>1.037895461087565</v>
-      </c>
-      <c r="N19">
-        <v>1.037895461087565</v>
-      </c>
-      <c r="O19">
+      <c r="M23">
+        <v>1.037895461087566</v>
+      </c>
+      <c r="N23">
+        <v>1.037895461087566</v>
+      </c>
+      <c r="O23">
         <v>1.016796680920915</v>
       </c>
-      <c r="P19">
-        <v>0.9889048115084317</v>
-      </c>
-      <c r="Q19">
-        <v>0.9889048115084317</v>
-      </c>
-      <c r="R19">
-        <v>0.9644094867188647</v>
-      </c>
-      <c r="S19">
-        <v>0.9644094867188647</v>
-      </c>
-      <c r="T19">
-        <v>0.9992391645357753</v>
+      <c r="P23">
+        <v>0.9889048115084318</v>
+      </c>
+      <c r="Q23">
+        <v>0.9889048115084318</v>
+      </c>
+      <c r="R23">
+        <v>0.9644094867188648</v>
+      </c>
+      <c r="S23">
+        <v>0.9644094867188648</v>
+      </c>
+      <c r="T23">
+        <v>0.9992391645357754</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Gamma1F-HW10.xlsx
+++ b/JupyterNotebooks/AvgHW/Gamma1F-HW10.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[4, 0, 0]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9601895350780446</v>
+        <v>0.7411408149377428</v>
       </c>
       <c r="D3">
-        <v>1.017957790236212</v>
+        <v>1.073986001285301</v>
       </c>
       <c r="E3">
-        <v>0.9601895350780446</v>
+        <v>0.7411408149377428</v>
       </c>
       <c r="F3">
-        <v>1.07381763094648</v>
+        <v>0.9233306149582157</v>
       </c>
       <c r="G3">
-        <v>0.9610370078954977</v>
+        <v>0.7828375498171726</v>
       </c>
       <c r="H3">
-        <v>0.9755725037233601</v>
+        <v>2.081841208986201</v>
       </c>
       <c r="I3">
-        <v>1.07381763094648</v>
+        <v>0.9233306149582157</v>
       </c>
       <c r="J3">
-        <v>1.020412262256542</v>
+        <v>1.002171309971182</v>
       </c>
       <c r="K3">
-        <v>1.07381763094648</v>
+        <v>0.9233306149582157</v>
       </c>
       <c r="L3">
-        <v>1.017957790236212</v>
+        <v>1.073986001285301</v>
       </c>
       <c r="M3">
-        <v>0.9890736626571281</v>
+        <v>0.9075634081115217</v>
       </c>
       <c r="N3">
-        <v>0.9890736626571281</v>
+        <v>0.9075634081115217</v>
       </c>
       <c r="O3">
-        <v>0.979728111069918</v>
+        <v>0.8659881220134054</v>
       </c>
       <c r="P3">
-        <v>1.017321652086912</v>
+        <v>0.9128191437270864</v>
       </c>
       <c r="Q3">
-        <v>1.017321652086912</v>
+        <v>0.9128191437270864</v>
       </c>
       <c r="R3">
-        <v>1.031445646801804</v>
+        <v>0.9154470115348687</v>
       </c>
       <c r="S3">
-        <v>1.031445646801804</v>
+        <v>0.9154470115348687</v>
       </c>
       <c r="T3">
-        <v>1.001497788356023</v>
+        <v>1.100884583325969</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9215080898239538</v>
+        <v>0.7664281700259586</v>
       </c>
       <c r="D4">
-        <v>1.030523892603836</v>
+        <v>1.074406376778138</v>
       </c>
       <c r="E4">
-        <v>0.9215080898239538</v>
+        <v>0.7664281700259586</v>
       </c>
       <c r="F4">
-        <v>1.142582386995078</v>
+        <v>0.9088517436952591</v>
       </c>
       <c r="G4">
-        <v>0.9242174231966434</v>
+        <v>0.8030138457699292</v>
       </c>
       <c r="H4">
-        <v>0.9586446249200699</v>
+        <v>1.977201895850725</v>
       </c>
       <c r="I4">
-        <v>1.142582386995078</v>
+        <v>0.9088517436952591</v>
       </c>
       <c r="J4">
-        <v>1.039788421852951</v>
+        <v>1.004168394357997</v>
       </c>
       <c r="K4">
-        <v>1.142582386995078</v>
+        <v>0.9088517436952591</v>
       </c>
       <c r="L4">
-        <v>1.030523892603836</v>
+        <v>1.074406376778138</v>
       </c>
       <c r="M4">
-        <v>0.9760159912138952</v>
+        <v>0.9204172734020482</v>
       </c>
       <c r="N4">
-        <v>0.9760159912138952</v>
+        <v>0.9204172734020482</v>
       </c>
       <c r="O4">
-        <v>0.9587498018748112</v>
+        <v>0.8812827975246752</v>
       </c>
       <c r="P4">
-        <v>1.031538123140956</v>
+        <v>0.9165620968331184</v>
       </c>
       <c r="Q4">
-        <v>1.031538123140956</v>
+        <v>0.9165620968331184</v>
       </c>
       <c r="R4">
-        <v>1.059299189104487</v>
+        <v>0.9146345085486536</v>
       </c>
       <c r="S4">
-        <v>1.059299189104487</v>
+        <v>0.9146345085486536</v>
       </c>
       <c r="T4">
-        <v>1.002877473232089</v>
+        <v>1.089011737746334</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.8565830899716373</v>
+        <v>0.6939196343988956</v>
       </c>
       <c r="D5">
-        <v>1.06470269230296</v>
+        <v>1.072319712525607</v>
       </c>
       <c r="E5">
-        <v>0.8565830899716373</v>
+        <v>0.6939196343988956</v>
       </c>
       <c r="F5">
-        <v>1.279068129654216</v>
+        <v>0.9515210494517515</v>
       </c>
       <c r="G5">
-        <v>0.8591990023733468</v>
+        <v>0.7448013849646908</v>
       </c>
       <c r="H5">
-        <v>0.9371532851348956</v>
+        <v>2.284221655128384</v>
       </c>
       <c r="I5">
-        <v>1.279068129654216</v>
+        <v>0.9515210494517515</v>
       </c>
       <c r="J5">
-        <v>1.087160497681665</v>
+        <v>0.9974041382479781</v>
       </c>
       <c r="K5">
-        <v>1.279068129654216</v>
+        <v>0.9515210494517515</v>
       </c>
       <c r="L5">
-        <v>1.06470269230296</v>
+        <v>1.072319712525607</v>
       </c>
       <c r="M5">
-        <v>0.9606428911372988</v>
+        <v>0.8831196734622512</v>
       </c>
       <c r="N5">
-        <v>0.9606428911372988</v>
+        <v>0.8831196734622512</v>
       </c>
       <c r="O5">
-        <v>0.9268282615493147</v>
+        <v>0.8370135772963977</v>
       </c>
       <c r="P5">
-        <v>1.066784637309605</v>
+        <v>0.9059201321254179</v>
       </c>
       <c r="Q5">
-        <v>1.066784637309605</v>
+        <v>0.9059201321254179</v>
       </c>
       <c r="R5">
-        <v>1.119855510395757</v>
+        <v>0.9173203614570014</v>
       </c>
       <c r="S5">
-        <v>1.119855510395757</v>
+        <v>0.9173203614570014</v>
       </c>
       <c r="T5">
-        <v>1.01397778285312</v>
+        <v>1.124031262452885</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.7483519676763585</v>
+        <v>0.6489851459461926</v>
       </c>
       <c r="D6">
-        <v>1.189195082091752</v>
+        <v>1.072274213164774</v>
       </c>
       <c r="E6">
-        <v>0.7483519676763585</v>
+        <v>0.6489851459461926</v>
       </c>
       <c r="F6">
-        <v>1.47127204172989</v>
+        <v>0.9811215382772721</v>
       </c>
       <c r="G6">
-        <v>0.8250630120593778</v>
+        <v>0.70928748532159</v>
       </c>
       <c r="H6">
-        <v>0.8439437105659937</v>
+        <v>2.480599110080117</v>
       </c>
       <c r="I6">
-        <v>1.47127204172989</v>
+        <v>0.9811215382772721</v>
       </c>
       <c r="J6">
-        <v>1.127865945223569</v>
+        <v>0.9909460954545445</v>
       </c>
       <c r="K6">
-        <v>1.47127204172989</v>
+        <v>0.9811215382772721</v>
       </c>
       <c r="L6">
-        <v>1.189195082091752</v>
+        <v>1.072274213164774</v>
       </c>
       <c r="M6">
-        <v>0.9687735248840552</v>
+        <v>0.8606296795554832</v>
       </c>
       <c r="N6">
-        <v>0.9687735248840552</v>
+        <v>0.8606296795554832</v>
       </c>
       <c r="O6">
-        <v>0.9208700206091628</v>
+        <v>0.8101822814775188</v>
       </c>
       <c r="P6">
-        <v>1.136273030499334</v>
+        <v>0.9007936324627462</v>
       </c>
       <c r="Q6">
-        <v>1.136273030499334</v>
+        <v>0.900793632462746</v>
       </c>
       <c r="R6">
-        <v>1.220022783306973</v>
+        <v>0.9208756089163775</v>
       </c>
       <c r="S6">
-        <v>1.220022783306973</v>
+        <v>0.9208756089163775</v>
       </c>
       <c r="T6">
-        <v>1.034281959891157</v>
+        <v>1.147202264707415</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9986870185421099</v>
+        <v>0.06779268619119637</v>
       </c>
       <c r="D7">
-        <v>0.9998365226127056</v>
+        <v>0.9948903722825169</v>
       </c>
       <c r="E7">
-        <v>0.9986870185421099</v>
+        <v>0.06779268619119637</v>
       </c>
       <c r="F7">
-        <v>1.000000682939785</v>
+        <v>1.245015135924261</v>
       </c>
       <c r="G7">
-        <v>0.9986132701353594</v>
+        <v>0.8569671526721648</v>
       </c>
       <c r="H7">
-        <v>1.010546527182583</v>
+        <v>0.8571717302029701</v>
       </c>
       <c r="I7">
-        <v>1.000000682939785</v>
+        <v>1.245015135924261</v>
       </c>
       <c r="J7">
-        <v>0.9993504861815073</v>
+        <v>1.090326886042321</v>
       </c>
       <c r="K7">
-        <v>1.000000682939785</v>
+        <v>1.245015135924261</v>
       </c>
       <c r="L7">
-        <v>0.9998365226127056</v>
+        <v>0.9948903722825169</v>
       </c>
       <c r="M7">
-        <v>0.9992617705774078</v>
+        <v>0.5313415292368566</v>
       </c>
       <c r="N7">
-        <v>0.9992617705774078</v>
+        <v>0.5313415292368566</v>
       </c>
       <c r="O7">
-        <v>0.9990456037633916</v>
+        <v>0.6398834037152926</v>
       </c>
       <c r="P7">
-        <v>0.9995080746982001</v>
+        <v>0.7692327314659915</v>
       </c>
       <c r="Q7">
-        <v>0.9995080746982001</v>
+        <v>0.7692327314659915</v>
       </c>
       <c r="R7">
-        <v>0.9996312267585963</v>
+        <v>0.8881783325805589</v>
       </c>
       <c r="S7">
-        <v>0.9996312267585963</v>
+        <v>0.8881783325805589</v>
       </c>
       <c r="T7">
-        <v>1.001172417932342</v>
+        <v>0.8520273272192385</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9958652497436996</v>
+        <v>0.06743189111679164</v>
       </c>
       <c r="D8">
-        <v>0.9998190811639077</v>
+        <v>0.9923453812277827</v>
       </c>
       <c r="E8">
-        <v>0.9958652497436996</v>
+        <v>0.06743189111679164</v>
       </c>
       <c r="F8">
-        <v>1.001313324131963</v>
+        <v>1.25278090804384</v>
       </c>
       <c r="G8">
-        <v>0.996882799224927</v>
+        <v>0.852429685711081</v>
       </c>
       <c r="H8">
-        <v>1.023818690760413</v>
+        <v>0.8935749976357277</v>
       </c>
       <c r="I8">
-        <v>1.001313324131963</v>
+        <v>1.25278090804384</v>
       </c>
       <c r="J8">
-        <v>0.9986663006825309</v>
+        <v>1.086541612729487</v>
       </c>
       <c r="K8">
-        <v>1.001313324131963</v>
+        <v>1.25278090804384</v>
       </c>
       <c r="L8">
-        <v>0.9998190811639077</v>
+        <v>0.9923453812277827</v>
       </c>
       <c r="M8">
-        <v>0.9978421654538037</v>
+        <v>0.5298886361722872</v>
       </c>
       <c r="N8">
-        <v>0.9978421654538037</v>
+        <v>0.5298886361722872</v>
       </c>
       <c r="O8">
-        <v>0.9975223767108448</v>
+        <v>0.6374023193518852</v>
       </c>
       <c r="P8">
-        <v>0.9989992183465235</v>
+        <v>0.7708527267961381</v>
       </c>
       <c r="Q8">
-        <v>0.9989992183465234</v>
+        <v>0.7708527267961381</v>
       </c>
       <c r="R8">
-        <v>0.9995777447928833</v>
+        <v>0.8913347721080637</v>
       </c>
       <c r="S8">
-        <v>0.9995777447928833</v>
+        <v>0.8913347721080637</v>
       </c>
       <c r="T8">
-        <v>1.002727574284574</v>
+        <v>0.8575174127441184</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9939060986677778</v>
+        <v>0.06720463281809337</v>
       </c>
       <c r="D9">
-        <v>0.9995920290974556</v>
+        <v>0.9903984403507855</v>
       </c>
       <c r="E9">
-        <v>0.9939060986677778</v>
+        <v>0.06720463281809337</v>
       </c>
       <c r="F9">
-        <v>1.005491780791936</v>
+        <v>1.250994002411504</v>
       </c>
       <c r="G9">
-        <v>0.9948249117223862</v>
+        <v>0.84941998731193</v>
       </c>
       <c r="H9">
-        <v>1.028071609414475</v>
+        <v>0.9353573913048356</v>
       </c>
       <c r="I9">
-        <v>1.005491780791936</v>
+        <v>1.250994002411504</v>
       </c>
       <c r="J9">
-        <v>0.9983785899873611</v>
+        <v>1.082753253654972</v>
       </c>
       <c r="K9">
-        <v>1.005491780791936</v>
+        <v>1.250994002411504</v>
       </c>
       <c r="L9">
-        <v>0.9995920290974556</v>
+        <v>0.9903984403507855</v>
       </c>
       <c r="M9">
-        <v>0.9967490638826166</v>
+        <v>0.5288015365844394</v>
       </c>
       <c r="N9">
-        <v>0.9967490638826166</v>
+        <v>0.5288015365844394</v>
       </c>
       <c r="O9">
-        <v>0.9961076798292066</v>
+        <v>0.635674353493603</v>
       </c>
       <c r="P9">
-        <v>0.9996633028523897</v>
+        <v>0.7695323585267942</v>
       </c>
       <c r="Q9">
-        <v>0.9996633028523897</v>
+        <v>0.7695323585267942</v>
       </c>
       <c r="R9">
-        <v>1.001120422337276</v>
+        <v>0.8898977694979716</v>
       </c>
       <c r="S9">
-        <v>1.001120422337276</v>
+        <v>0.8898977694979716</v>
       </c>
       <c r="T9">
-        <v>1.003377503280232</v>
+        <v>0.8626879513086867</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9890394651328582</v>
+        <v>0.06627710398678505</v>
       </c>
       <c r="D10">
-        <v>0.9983108581774847</v>
+        <v>0.9775296992727571</v>
       </c>
       <c r="E10">
-        <v>0.9890394651328582</v>
+        <v>0.06627710398678505</v>
       </c>
       <c r="F10">
-        <v>1.007925335539764</v>
+        <v>1.303968272912498</v>
       </c>
       <c r="G10">
-        <v>0.9891748496048505</v>
+        <v>0.8380844004290063</v>
       </c>
       <c r="H10">
-        <v>1.069118188173494</v>
+        <v>1.001735893887513</v>
       </c>
       <c r="I10">
-        <v>1.007925335539764</v>
+        <v>1.303968272912498</v>
       </c>
       <c r="J10">
-        <v>0.9956723852817739</v>
+        <v>1.071381390680809</v>
       </c>
       <c r="K10">
-        <v>1.007925335539764</v>
+        <v>1.303968272912498</v>
       </c>
       <c r="L10">
-        <v>0.9983108581774847</v>
+        <v>0.9775296992727571</v>
       </c>
       <c r="M10">
-        <v>0.9936751616551714</v>
+        <v>0.5219034016297711</v>
       </c>
       <c r="N10">
-        <v>0.9936751616551714</v>
+        <v>0.5219034016297711</v>
       </c>
       <c r="O10">
-        <v>0.9921750576383978</v>
+        <v>0.6272970678961829</v>
       </c>
       <c r="P10">
-        <v>0.9984252196167024</v>
+        <v>0.7825916920573466</v>
       </c>
       <c r="Q10">
-        <v>0.9984252196167024</v>
+        <v>0.7825916920573466</v>
       </c>
       <c r="R10">
-        <v>1.000800248597468</v>
+        <v>0.9129358372711343</v>
       </c>
       <c r="S10">
-        <v>1.000800248597468</v>
+        <v>0.9129358372711343</v>
       </c>
       <c r="T10">
-        <v>1.008206846985038</v>
+        <v>0.8764961268615612</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9792348864440279</v>
+        <v>0.952067099555559</v>
       </c>
       <c r="D11">
-        <v>0.9967384527386056</v>
+        <v>1.015969525539608</v>
       </c>
       <c r="E11">
-        <v>0.9792348864440279</v>
+        <v>0.952067099555559</v>
       </c>
       <c r="F11">
-        <v>1.022234647396581</v>
+        <v>1.072519008767067</v>
       </c>
       <c r="G11">
-        <v>0.9817380648883498</v>
+        <v>0.9600620902120176</v>
       </c>
       <c r="H11">
-        <v>1.100564402484872</v>
+        <v>0.9720715001595985</v>
       </c>
       <c r="I11">
-        <v>1.022234647396581</v>
+        <v>1.072519008767067</v>
       </c>
       <c r="J11">
-        <v>0.9946650368647193</v>
+        <v>1.02329979377848</v>
       </c>
       <c r="K11">
-        <v>1.022234647396581</v>
+        <v>1.072519008767067</v>
       </c>
       <c r="L11">
-        <v>0.9967384527386056</v>
+        <v>1.015969525539608</v>
       </c>
       <c r="M11">
-        <v>0.9879866695913168</v>
+        <v>0.9840183125475837</v>
       </c>
       <c r="N11">
-        <v>0.9879866695913168</v>
+        <v>0.9840183125475837</v>
       </c>
       <c r="O11">
-        <v>0.9859038013569945</v>
+        <v>0.9760329051023949</v>
       </c>
       <c r="P11">
-        <v>0.9994026621930715</v>
+        <v>1.013518544620745</v>
       </c>
       <c r="Q11">
-        <v>0.9994026621930715</v>
+        <v>1.013518544620745</v>
       </c>
       <c r="R11">
-        <v>1.005110658493949</v>
+        <v>1.028268660657325</v>
       </c>
       <c r="S11">
-        <v>1.005110658493949</v>
+        <v>1.028268660657325</v>
       </c>
       <c r="T11">
-        <v>1.012529248469526</v>
+        <v>0.999331503002055</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.8486630064466159</v>
+        <v>0.9740236440125171</v>
       </c>
       <c r="D12">
-        <v>0.669356081706832</v>
+        <v>1.007032713177685</v>
       </c>
       <c r="E12">
-        <v>0.8486630064466159</v>
+        <v>0.9740236440125171</v>
       </c>
       <c r="F12">
-        <v>1.532267258639387</v>
+        <v>1.037821645961622</v>
       </c>
       <c r="G12">
-        <v>1.230359668113492</v>
+        <v>0.980731514129167</v>
       </c>
       <c r="H12">
-        <v>0.08048465139390691</v>
+        <v>0.988744073456661</v>
       </c>
       <c r="I12">
-        <v>1.532267258639387</v>
+        <v>1.037821645961622</v>
       </c>
       <c r="J12">
-        <v>0.9583033382359376</v>
+        <v>1.010029566711029</v>
       </c>
       <c r="K12">
-        <v>1.532267258639387</v>
+        <v>1.037821645961622</v>
       </c>
       <c r="L12">
-        <v>0.669356081706832</v>
+        <v>1.007032713177685</v>
       </c>
       <c r="M12">
-        <v>0.7590095440767239</v>
+        <v>0.9905281785951012</v>
       </c>
       <c r="N12">
-        <v>0.7590095440767239</v>
+        <v>0.9905281785951012</v>
       </c>
       <c r="O12">
-        <v>0.9161262520889801</v>
+        <v>0.9872626237731232</v>
       </c>
       <c r="P12">
-        <v>1.016762115597611</v>
+        <v>1.006292667717275</v>
       </c>
       <c r="Q12">
-        <v>1.016762115597611</v>
+        <v>1.006292667717275</v>
       </c>
       <c r="R12">
-        <v>1.145638401358055</v>
+        <v>1.014174912278362</v>
       </c>
       <c r="S12">
-        <v>1.145638401358055</v>
+        <v>1.014174912278362</v>
       </c>
       <c r="T12">
-        <v>0.886572334089362</v>
+        <v>0.999730526241447</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.430676343334622</v>
+        <v>0.9144348706604417</v>
       </c>
       <c r="D13">
-        <v>1.136867111548494</v>
+        <v>1.022792382743846</v>
       </c>
       <c r="E13">
-        <v>1.430676343334622</v>
+        <v>0.9144348706604417</v>
       </c>
       <c r="F13">
-        <v>0.7370958989984403</v>
+        <v>1.139656831039854</v>
       </c>
       <c r="G13">
-        <v>0.9647252935279279</v>
+        <v>0.9308175068588578</v>
       </c>
       <c r="H13">
-        <v>1.0699870435726</v>
+        <v>0.9459865810963303</v>
       </c>
       <c r="I13">
-        <v>0.7370958989984403</v>
+        <v>1.139656831039854</v>
       </c>
       <c r="J13">
-        <v>0.9929843792938187</v>
+        <v>1.038569083911686</v>
       </c>
       <c r="K13">
-        <v>0.7370958989984403</v>
+        <v>1.139656831039854</v>
       </c>
       <c r="L13">
-        <v>1.136867111548494</v>
+        <v>1.022792382743846</v>
       </c>
       <c r="M13">
-        <v>1.283771727441558</v>
+        <v>0.9686136267021439</v>
       </c>
       <c r="N13">
-        <v>1.283771727441558</v>
+        <v>0.9686136267021439</v>
       </c>
       <c r="O13">
-        <v>1.177422916137015</v>
+        <v>0.9560149200877152</v>
       </c>
       <c r="P13">
-        <v>1.101546451293852</v>
+        <v>1.025628028148047</v>
       </c>
       <c r="Q13">
-        <v>1.101546451293852</v>
+        <v>1.025628028148047</v>
       </c>
       <c r="R13">
-        <v>1.010433813219999</v>
+        <v>1.054135228870999</v>
       </c>
       <c r="S13">
-        <v>1.010433813219999</v>
+        <v>1.054135228870999</v>
       </c>
       <c r="T13">
-        <v>1.055389345045984</v>
+        <v>0.9987095427185025</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.185810061099715</v>
+        <v>0.8873617031021265</v>
       </c>
       <c r="D14">
-        <v>0.6377965460857161</v>
+        <v>1.040006618662179</v>
       </c>
       <c r="E14">
-        <v>1.185810061099715</v>
+        <v>0.8873617031021265</v>
       </c>
       <c r="F14">
-        <v>1.427136596211693</v>
+        <v>1.196549379351288</v>
       </c>
       <c r="G14">
-        <v>1.207130680221456</v>
+        <v>0.8935249266849604</v>
       </c>
       <c r="H14">
-        <v>0.09327136695317681</v>
+        <v>0.9461445421213909</v>
       </c>
       <c r="I14">
-        <v>1.427136596211693</v>
+        <v>1.196549379351288</v>
       </c>
       <c r="J14">
-        <v>0.9867270985990664</v>
+        <v>1.056471486119945</v>
       </c>
       <c r="K14">
-        <v>1.427136596211693</v>
+        <v>1.196549379351288</v>
       </c>
       <c r="L14">
-        <v>0.6377965460857161</v>
+        <v>1.040006618662179</v>
       </c>
       <c r="M14">
-        <v>0.9118033035927153</v>
+        <v>0.9636841608821529</v>
       </c>
       <c r="N14">
-        <v>0.9118033035927153</v>
+        <v>0.9636841608821529</v>
       </c>
       <c r="O14">
-        <v>1.010245762468962</v>
+        <v>0.9402977494830888</v>
       </c>
       <c r="P14">
-        <v>1.083581067799041</v>
+        <v>1.041305900371865</v>
       </c>
       <c r="Q14">
-        <v>1.083581067799041</v>
+        <v>1.041305900371865</v>
       </c>
       <c r="R14">
-        <v>1.169469949902204</v>
+        <v>1.08011677011672</v>
       </c>
       <c r="S14">
-        <v>1.169469949902204</v>
+        <v>1.08011677011672</v>
       </c>
       <c r="T14">
-        <v>0.9229787248618037</v>
+        <v>1.003343109340315</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.057916784435557</v>
+        <v>0.9601895350780446</v>
       </c>
       <c r="D15">
-        <v>1.149725554810864</v>
+        <v>1.017957790236212</v>
       </c>
       <c r="E15">
-        <v>1.057916784435557</v>
+        <v>0.9601895350780446</v>
       </c>
       <c r="F15">
-        <v>0.6604641208295891</v>
+        <v>1.07381763094648</v>
       </c>
       <c r="G15">
-        <v>1.076653969790704</v>
+        <v>0.9610370078954977</v>
       </c>
       <c r="H15">
-        <v>1.138874882531725</v>
+        <v>0.9755725037233601</v>
       </c>
       <c r="I15">
-        <v>0.6604641208295891</v>
+        <v>1.07381763094648</v>
       </c>
       <c r="J15">
-        <v>0.9407419295904441</v>
+        <v>1.020412262256542</v>
       </c>
       <c r="K15">
-        <v>0.6604641208295891</v>
+        <v>1.07381763094648</v>
       </c>
       <c r="L15">
-        <v>1.149725554810864</v>
+        <v>1.017957790236212</v>
       </c>
       <c r="M15">
-        <v>1.103821169623211</v>
+        <v>0.9890736626571281</v>
       </c>
       <c r="N15">
-        <v>1.103821169623211</v>
+        <v>0.9890736626571281</v>
       </c>
       <c r="O15">
-        <v>1.094765436345708</v>
+        <v>0.979728111069918</v>
       </c>
       <c r="P15">
-        <v>0.9560354866920036</v>
+        <v>1.017321652086912</v>
       </c>
       <c r="Q15">
-        <v>0.9560354866920036</v>
+        <v>1.017321652086912</v>
       </c>
       <c r="R15">
-        <v>0.8821426452264</v>
+        <v>1.031445646801804</v>
       </c>
       <c r="S15">
-        <v>0.8821426452264</v>
+        <v>1.031445646801804</v>
       </c>
       <c r="T15">
-        <v>1.004062873664814</v>
+        <v>1.001497788356023</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.1980891115994857</v>
+        <v>0.9215080898239538</v>
       </c>
       <c r="D16">
-        <v>1.295016450504854</v>
+        <v>1.030523892603836</v>
       </c>
       <c r="E16">
-        <v>0.1980891115994857</v>
+        <v>0.9215080898239538</v>
       </c>
       <c r="F16">
-        <v>2.261856353502546</v>
+        <v>1.142582386995078</v>
       </c>
       <c r="G16">
-        <v>0.2904602916635345</v>
+        <v>0.9242174231966434</v>
       </c>
       <c r="H16">
-        <v>0.6913375317328532</v>
+        <v>0.9586446249200699</v>
       </c>
       <c r="I16">
-        <v>2.261856353502546</v>
+        <v>1.142582386995078</v>
       </c>
       <c r="J16">
-        <v>1.378951998813785</v>
+        <v>1.039788421852951</v>
       </c>
       <c r="K16">
-        <v>2.261856353502546</v>
+        <v>1.142582386995078</v>
       </c>
       <c r="L16">
-        <v>1.295016450504854</v>
+        <v>1.030523892603836</v>
       </c>
       <c r="M16">
-        <v>0.7465527810521697</v>
+        <v>0.9760159912138952</v>
       </c>
       <c r="N16">
-        <v>0.7465527810521697</v>
+        <v>0.9760159912138952</v>
       </c>
       <c r="O16">
-        <v>0.594521951255958</v>
+        <v>0.9587498018748112</v>
       </c>
       <c r="P16">
-        <v>1.251653971868962</v>
+        <v>1.031538123140956</v>
       </c>
       <c r="Q16">
-        <v>1.251653971868962</v>
+        <v>1.031538123140956</v>
       </c>
       <c r="R16">
-        <v>1.504204567277358</v>
+        <v>1.059299189104487</v>
       </c>
       <c r="S16">
-        <v>1.504204567277358</v>
+        <v>1.059299189104487</v>
       </c>
       <c r="T16">
-        <v>1.019285289636176</v>
+        <v>1.002877473232089</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.394407098936947</v>
+        <v>0.8565830899716373</v>
       </c>
       <c r="D17">
-        <v>1.221292979463114</v>
+        <v>1.06470269230296</v>
       </c>
       <c r="E17">
-        <v>0.394407098936947</v>
+        <v>0.8565830899716373</v>
       </c>
       <c r="F17">
-        <v>1.809387755356962</v>
+        <v>1.279068129654216</v>
       </c>
       <c r="G17">
-        <v>0.4664306250389018</v>
+        <v>0.8591990023733468</v>
       </c>
       <c r="H17">
-        <v>1.091111004308313</v>
+        <v>0.9371532851348956</v>
       </c>
       <c r="I17">
-        <v>1.809387755356962</v>
+        <v>1.279068129654216</v>
       </c>
       <c r="J17">
-        <v>1.254440694848495</v>
+        <v>1.087160497681665</v>
       </c>
       <c r="K17">
-        <v>1.809387755356962</v>
+        <v>1.279068129654216</v>
       </c>
       <c r="L17">
-        <v>1.221292979463114</v>
+        <v>1.06470269230296</v>
       </c>
       <c r="M17">
-        <v>0.8078500392000306</v>
+        <v>0.9606428911372988</v>
       </c>
       <c r="N17">
-        <v>0.8078500392000306</v>
+        <v>0.9606428911372988</v>
       </c>
       <c r="O17">
-        <v>0.6940435678129876</v>
+        <v>0.9268282615493147</v>
       </c>
       <c r="P17">
-        <v>1.141695944585674</v>
+        <v>1.066784637309605</v>
       </c>
       <c r="Q17">
-        <v>1.141695944585674</v>
+        <v>1.066784637309605</v>
       </c>
       <c r="R17">
-        <v>1.308618897278496</v>
+        <v>1.119855510395757</v>
       </c>
       <c r="S17">
-        <v>1.308618897278496</v>
+        <v>1.119855510395757</v>
       </c>
       <c r="T17">
-        <v>1.039511692992122</v>
+        <v>1.01397778285312</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.7863028775132678</v>
+        <v>0.7483519676763585</v>
       </c>
       <c r="D18">
-        <v>1.074092204668683</v>
+        <v>1.189195082091752</v>
       </c>
       <c r="E18">
-        <v>0.7863028775132678</v>
+        <v>0.7483519676763585</v>
       </c>
       <c r="F18">
-        <v>0.9126760587246583</v>
+        <v>1.47127204172989</v>
       </c>
       <c r="G18">
-        <v>0.8178241052163184</v>
+        <v>0.8250630120593778</v>
       </c>
       <c r="H18">
-        <v>1.873934503390532</v>
+        <v>0.8439437105659937</v>
       </c>
       <c r="I18">
-        <v>0.9126760587246583</v>
+        <v>1.47127204172989</v>
       </c>
       <c r="J18">
-        <v>1.006893874635245</v>
+        <v>1.127865945223569</v>
       </c>
       <c r="K18">
-        <v>0.9126760587246583</v>
+        <v>1.47127204172989</v>
       </c>
       <c r="L18">
-        <v>1.074092204668683</v>
+        <v>1.189195082091752</v>
       </c>
       <c r="M18">
-        <v>0.9301975410909755</v>
+        <v>0.9687735248840552</v>
       </c>
       <c r="N18">
-        <v>0.9301975410909755</v>
+        <v>0.9687735248840552</v>
       </c>
       <c r="O18">
-        <v>0.8927397291327566</v>
+        <v>0.9208700206091628</v>
       </c>
       <c r="P18">
-        <v>0.9243570469688698</v>
+        <v>1.136273030499334</v>
       </c>
       <c r="Q18">
-        <v>0.9243570469688698</v>
+        <v>1.136273030499334</v>
       </c>
       <c r="R18">
-        <v>0.9214367999078169</v>
+        <v>1.220022783306973</v>
       </c>
       <c r="S18">
-        <v>0.9214367999078169</v>
+        <v>1.220022783306973</v>
       </c>
       <c r="T18">
-        <v>1.078620604024784</v>
+        <v>1.034281959891157</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.8872120800598363</v>
+        <v>0.9986870185421099</v>
       </c>
       <c r="D19">
-        <v>1.062823118384571</v>
+        <v>0.9998365226127056</v>
       </c>
       <c r="E19">
-        <v>0.8872120800598363</v>
+        <v>0.9986870185421099</v>
       </c>
       <c r="F19">
-        <v>0.8471499312244216</v>
+        <v>1.000000682939785</v>
       </c>
       <c r="G19">
-        <v>0.7887773159678759</v>
+        <v>0.9986132701353594</v>
       </c>
       <c r="H19">
-        <v>2.147917874353528</v>
+        <v>1.010546527182583</v>
       </c>
       <c r="I19">
-        <v>0.8471499312244216</v>
+        <v>1.000000682939785</v>
       </c>
       <c r="J19">
-        <v>0.9823754394073977</v>
+        <v>0.9993504861815073</v>
       </c>
       <c r="K19">
-        <v>0.8471499312244216</v>
+        <v>1.000000682939785</v>
       </c>
       <c r="L19">
-        <v>1.062823118384571</v>
+        <v>0.9998365226127056</v>
       </c>
       <c r="M19">
-        <v>0.9750175992222037</v>
+        <v>0.9992617705774078</v>
       </c>
       <c r="N19">
-        <v>0.9750175992222037</v>
+        <v>0.9992617705774078</v>
       </c>
       <c r="O19">
-        <v>0.9129375048040944</v>
+        <v>0.9990456037633916</v>
       </c>
       <c r="P19">
-        <v>0.932395043222943</v>
+        <v>0.9995080746982001</v>
       </c>
       <c r="Q19">
-        <v>0.932395043222943</v>
+        <v>0.9995080746982001</v>
       </c>
       <c r="R19">
-        <v>0.9110837652233126</v>
+        <v>0.9996312267585963</v>
       </c>
       <c r="S19">
-        <v>0.9110837652233126</v>
+        <v>0.9996312267585963</v>
       </c>
       <c r="T19">
-        <v>1.119375959899605</v>
+        <v>1.001172417932342</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.000290501809154</v>
+        <v>0.9958652497436996</v>
       </c>
       <c r="D20">
-        <v>1.007374740102396</v>
+        <v>0.9998190811639077</v>
       </c>
       <c r="E20">
-        <v>1.000290501809154</v>
+        <v>0.9958652497436996</v>
       </c>
       <c r="F20">
-        <v>0.9847925297779825</v>
+        <v>1.001313324131963</v>
       </c>
       <c r="G20">
-        <v>1.000655066696593</v>
+        <v>0.996882799224927</v>
       </c>
       <c r="H20">
-        <v>1.009915615893193</v>
+        <v>1.023818690760413</v>
       </c>
       <c r="I20">
-        <v>0.9847925297779825</v>
+        <v>1.001313324131963</v>
       </c>
       <c r="J20">
-        <v>1.000338537247515</v>
+        <v>0.9986663006825309</v>
       </c>
       <c r="K20">
-        <v>0.9847925297779825</v>
+        <v>1.001313324131963</v>
       </c>
       <c r="L20">
-        <v>1.007374740102396</v>
+        <v>0.9998190811639077</v>
       </c>
       <c r="M20">
-        <v>1.003832620955775</v>
+        <v>0.9978421654538037</v>
       </c>
       <c r="N20">
-        <v>1.003832620955775</v>
+        <v>0.9978421654538037</v>
       </c>
       <c r="O20">
-        <v>1.002773436202715</v>
+        <v>0.9975223767108448</v>
       </c>
       <c r="P20">
-        <v>0.9974859238965109</v>
+        <v>0.9989992183465235</v>
       </c>
       <c r="Q20">
-        <v>0.9974859238965109</v>
+        <v>0.9989992183465234</v>
       </c>
       <c r="R20">
-        <v>0.9943125753668788</v>
+        <v>0.9995777447928833</v>
       </c>
       <c r="S20">
-        <v>0.9943125753668788</v>
+        <v>0.9995777447928833</v>
       </c>
       <c r="T20">
-        <v>1.000561165254472</v>
+        <v>1.002727574284574</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9950721127775189</v>
+        <v>0.9939060986677778</v>
       </c>
       <c r="D21">
-        <v>0.9853734091398337</v>
+        <v>0.9995920290974556</v>
       </c>
       <c r="E21">
-        <v>0.9950721127775189</v>
+        <v>0.9939060986677778</v>
       </c>
       <c r="F21">
-        <v>1.021469815373089</v>
+        <v>1.005491780791936</v>
       </c>
       <c r="G21">
-        <v>0.9971536828588041</v>
+        <v>0.9948249117223862</v>
       </c>
       <c r="H21">
-        <v>1.006918061657909</v>
+        <v>1.028071609414475</v>
       </c>
       <c r="I21">
-        <v>1.021469815373089</v>
+        <v>1.005491780791936</v>
       </c>
       <c r="J21">
-        <v>0.996861698251174</v>
+        <v>0.9983785899873611</v>
       </c>
       <c r="K21">
-        <v>1.021469815373089</v>
+        <v>1.005491780791936</v>
       </c>
       <c r="L21">
-        <v>0.9853734091398337</v>
+        <v>0.9995920290974556</v>
       </c>
       <c r="M21">
-        <v>0.9902227609586763</v>
+        <v>0.9967490638826166</v>
       </c>
       <c r="N21">
-        <v>0.9902227609586763</v>
+        <v>0.9967490638826166</v>
       </c>
       <c r="O21">
-        <v>0.9925330682587189</v>
+        <v>0.9961076798292066</v>
       </c>
       <c r="P21">
-        <v>1.00063844576348</v>
+        <v>0.9996633028523897</v>
       </c>
       <c r="Q21">
-        <v>1.00063844576348</v>
+        <v>0.9996633028523897</v>
       </c>
       <c r="R21">
-        <v>1.005846288165883</v>
+        <v>1.001120422337276</v>
       </c>
       <c r="S21">
-        <v>1.005846288165883</v>
+        <v>1.001120422337276</v>
       </c>
       <c r="T21">
-        <v>1.000474796676388</v>
+        <v>1.003377503280232</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9929689349309244</v>
+        <v>0.9890394651328582</v>
       </c>
       <c r="D22">
-        <v>1.031089238639818</v>
+        <v>0.9983108581774847</v>
       </c>
       <c r="E22">
-        <v>0.9929689349309244</v>
+        <v>0.9890394651328582</v>
       </c>
       <c r="F22">
-        <v>1.003929477448791</v>
+        <v>1.007925335539764</v>
       </c>
       <c r="G22">
-        <v>0.9868862291682501</v>
+        <v>0.9891748496048505</v>
       </c>
       <c r="H22">
-        <v>1.010359842359819</v>
+        <v>1.069118188173494</v>
       </c>
       <c r="I22">
-        <v>1.003929477448791</v>
+        <v>1.007925335539764</v>
       </c>
       <c r="J22">
-        <v>1.008750642560268</v>
+        <v>0.9956723852817739</v>
       </c>
       <c r="K22">
-        <v>1.003929477448791</v>
+        <v>1.007925335539764</v>
       </c>
       <c r="L22">
-        <v>1.031089238639818</v>
+        <v>0.9983108581774847</v>
       </c>
       <c r="M22">
-        <v>1.012029086785371</v>
+        <v>0.9936751616551714</v>
       </c>
       <c r="N22">
-        <v>1.012029086785371</v>
+        <v>0.9936751616551714</v>
       </c>
       <c r="O22">
-        <v>1.003648134246331</v>
+        <v>0.9921750576383978</v>
       </c>
       <c r="P22">
-        <v>1.009329217006511</v>
+        <v>0.9984252196167024</v>
       </c>
       <c r="Q22">
-        <v>1.009329217006511</v>
+        <v>0.9984252196167024</v>
       </c>
       <c r="R22">
-        <v>1.007979282117081</v>
+        <v>1.000800248597468</v>
       </c>
       <c r="S22">
-        <v>1.007979282117081</v>
+        <v>1.000800248597468</v>
       </c>
       <c r="T22">
-        <v>1.005664060851312</v>
+        <v>1.008206846985038</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>0.9792348864440279</v>
+      </c>
+      <c r="D23">
+        <v>0.9967384527386056</v>
+      </c>
+      <c r="E23">
+        <v>0.9792348864440279</v>
+      </c>
+      <c r="F23">
+        <v>1.022234647396581</v>
+      </c>
+      <c r="G23">
+        <v>0.9817380648883498</v>
+      </c>
+      <c r="H23">
+        <v>1.100564402484872</v>
+      </c>
+      <c r="I23">
+        <v>1.022234647396581</v>
+      </c>
+      <c r="J23">
+        <v>0.9946650368647193</v>
+      </c>
+      <c r="K23">
+        <v>1.022234647396581</v>
+      </c>
+      <c r="L23">
+        <v>0.9967384527386056</v>
+      </c>
+      <c r="M23">
+        <v>0.9879866695913168</v>
+      </c>
+      <c r="N23">
+        <v>0.9879866695913168</v>
+      </c>
+      <c r="O23">
+        <v>0.9859038013569945</v>
+      </c>
+      <c r="P23">
+        <v>0.9994026621930715</v>
+      </c>
+      <c r="Q23">
+        <v>0.9994026621930715</v>
+      </c>
+      <c r="R23">
+        <v>1.005110658493949</v>
+      </c>
+      <c r="S23">
+        <v>1.005110658493949</v>
+      </c>
+      <c r="T23">
+        <v>1.012529248469526</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.8486630064466159</v>
+      </c>
+      <c r="D24">
+        <v>0.669356081706832</v>
+      </c>
+      <c r="E24">
+        <v>0.8486630064466159</v>
+      </c>
+      <c r="F24">
+        <v>1.532267258639387</v>
+      </c>
+      <c r="G24">
+        <v>1.230359668113492</v>
+      </c>
+      <c r="H24">
+        <v>0.08048465139390691</v>
+      </c>
+      <c r="I24">
+        <v>1.532267258639387</v>
+      </c>
+      <c r="J24">
+        <v>0.9583033382359376</v>
+      </c>
+      <c r="K24">
+        <v>1.532267258639387</v>
+      </c>
+      <c r="L24">
+        <v>0.669356081706832</v>
+      </c>
+      <c r="M24">
+        <v>0.7590095440767239</v>
+      </c>
+      <c r="N24">
+        <v>0.7590095440767239</v>
+      </c>
+      <c r="O24">
+        <v>0.9161262520889801</v>
+      </c>
+      <c r="P24">
+        <v>1.016762115597611</v>
+      </c>
+      <c r="Q24">
+        <v>1.016762115597611</v>
+      </c>
+      <c r="R24">
+        <v>1.145638401358055</v>
+      </c>
+      <c r="S24">
+        <v>1.145638401358055</v>
+      </c>
+      <c r="T24">
+        <v>0.886572334089362</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.430676343334622</v>
+      </c>
+      <c r="D25">
+        <v>1.136867111548494</v>
+      </c>
+      <c r="E25">
+        <v>1.430676343334622</v>
+      </c>
+      <c r="F25">
+        <v>0.7370958989984403</v>
+      </c>
+      <c r="G25">
+        <v>0.9647252935279279</v>
+      </c>
+      <c r="H25">
+        <v>1.0699870435726</v>
+      </c>
+      <c r="I25">
+        <v>0.7370958989984403</v>
+      </c>
+      <c r="J25">
+        <v>0.9929843792938187</v>
+      </c>
+      <c r="K25">
+        <v>0.7370958989984403</v>
+      </c>
+      <c r="L25">
+        <v>1.136867111548494</v>
+      </c>
+      <c r="M25">
+        <v>1.283771727441558</v>
+      </c>
+      <c r="N25">
+        <v>1.283771727441558</v>
+      </c>
+      <c r="O25">
+        <v>1.177422916137015</v>
+      </c>
+      <c r="P25">
+        <v>1.101546451293852</v>
+      </c>
+      <c r="Q25">
+        <v>1.101546451293852</v>
+      </c>
+      <c r="R25">
+        <v>1.010433813219999</v>
+      </c>
+      <c r="S25">
+        <v>1.010433813219999</v>
+      </c>
+      <c r="T25">
+        <v>1.055389345045984</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.185810061099715</v>
+      </c>
+      <c r="D26">
+        <v>0.6377965460857161</v>
+      </c>
+      <c r="E26">
+        <v>1.185810061099715</v>
+      </c>
+      <c r="F26">
+        <v>1.427136596211693</v>
+      </c>
+      <c r="G26">
+        <v>1.207130680221456</v>
+      </c>
+      <c r="H26">
+        <v>0.09327136695317681</v>
+      </c>
+      <c r="I26">
+        <v>1.427136596211693</v>
+      </c>
+      <c r="J26">
+        <v>0.9867270985990664</v>
+      </c>
+      <c r="K26">
+        <v>1.427136596211693</v>
+      </c>
+      <c r="L26">
+        <v>0.6377965460857161</v>
+      </c>
+      <c r="M26">
+        <v>0.9118033035927153</v>
+      </c>
+      <c r="N26">
+        <v>0.9118033035927153</v>
+      </c>
+      <c r="O26">
+        <v>1.010245762468962</v>
+      </c>
+      <c r="P26">
+        <v>1.083581067799041</v>
+      </c>
+      <c r="Q26">
+        <v>1.083581067799041</v>
+      </c>
+      <c r="R26">
+        <v>1.169469949902204</v>
+      </c>
+      <c r="S26">
+        <v>1.169469949902204</v>
+      </c>
+      <c r="T26">
+        <v>0.9229787248618037</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.057916784435557</v>
+      </c>
+      <c r="D27">
+        <v>1.149725554810864</v>
+      </c>
+      <c r="E27">
+        <v>1.057916784435557</v>
+      </c>
+      <c r="F27">
+        <v>0.6604641208295891</v>
+      </c>
+      <c r="G27">
+        <v>1.076653969790704</v>
+      </c>
+      <c r="H27">
+        <v>1.138874882531725</v>
+      </c>
+      <c r="I27">
+        <v>0.6604641208295891</v>
+      </c>
+      <c r="J27">
+        <v>0.9407419295904441</v>
+      </c>
+      <c r="K27">
+        <v>0.6604641208295891</v>
+      </c>
+      <c r="L27">
+        <v>1.149725554810864</v>
+      </c>
+      <c r="M27">
+        <v>1.103821169623211</v>
+      </c>
+      <c r="N27">
+        <v>1.103821169623211</v>
+      </c>
+      <c r="O27">
+        <v>1.094765436345708</v>
+      </c>
+      <c r="P27">
+        <v>0.9560354866920036</v>
+      </c>
+      <c r="Q27">
+        <v>0.9560354866920036</v>
+      </c>
+      <c r="R27">
+        <v>0.8821426452264</v>
+      </c>
+      <c r="S27">
+        <v>0.8821426452264</v>
+      </c>
+      <c r="T27">
+        <v>1.004062873664814</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.1980891115994857</v>
+      </c>
+      <c r="D28">
+        <v>1.295016450504854</v>
+      </c>
+      <c r="E28">
+        <v>0.1980891115994857</v>
+      </c>
+      <c r="F28">
+        <v>2.261856353502546</v>
+      </c>
+      <c r="G28">
+        <v>0.2904602916635345</v>
+      </c>
+      <c r="H28">
+        <v>0.6913375317328532</v>
+      </c>
+      <c r="I28">
+        <v>2.261856353502546</v>
+      </c>
+      <c r="J28">
+        <v>1.378951998813785</v>
+      </c>
+      <c r="K28">
+        <v>2.261856353502546</v>
+      </c>
+      <c r="L28">
+        <v>1.295016450504854</v>
+      </c>
+      <c r="M28">
+        <v>0.7465527810521697</v>
+      </c>
+      <c r="N28">
+        <v>0.7465527810521697</v>
+      </c>
+      <c r="O28">
+        <v>0.594521951255958</v>
+      </c>
+      <c r="P28">
+        <v>1.251653971868962</v>
+      </c>
+      <c r="Q28">
+        <v>1.251653971868962</v>
+      </c>
+      <c r="R28">
+        <v>1.504204567277358</v>
+      </c>
+      <c r="S28">
+        <v>1.504204567277358</v>
+      </c>
+      <c r="T28">
+        <v>1.019285289636176</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.394407098936947</v>
+      </c>
+      <c r="D29">
+        <v>1.221292979463114</v>
+      </c>
+      <c r="E29">
+        <v>0.394407098936947</v>
+      </c>
+      <c r="F29">
+        <v>1.809387755356962</v>
+      </c>
+      <c r="G29">
+        <v>0.4664306250389018</v>
+      </c>
+      <c r="H29">
+        <v>1.091111004308313</v>
+      </c>
+      <c r="I29">
+        <v>1.809387755356962</v>
+      </c>
+      <c r="J29">
+        <v>1.254440694848495</v>
+      </c>
+      <c r="K29">
+        <v>1.809387755356962</v>
+      </c>
+      <c r="L29">
+        <v>1.221292979463114</v>
+      </c>
+      <c r="M29">
+        <v>0.8078500392000306</v>
+      </c>
+      <c r="N29">
+        <v>0.8078500392000306</v>
+      </c>
+      <c r="O29">
+        <v>0.6940435678129876</v>
+      </c>
+      <c r="P29">
+        <v>1.141695944585674</v>
+      </c>
+      <c r="Q29">
+        <v>1.141695944585674</v>
+      </c>
+      <c r="R29">
+        <v>1.308618897278496</v>
+      </c>
+      <c r="S29">
+        <v>1.308618897278496</v>
+      </c>
+      <c r="T29">
+        <v>1.039511692992122</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.7863028775132678</v>
+      </c>
+      <c r="D30">
+        <v>1.074092204668683</v>
+      </c>
+      <c r="E30">
+        <v>0.7863028775132678</v>
+      </c>
+      <c r="F30">
+        <v>0.9126760587246583</v>
+      </c>
+      <c r="G30">
+        <v>0.8178241052163184</v>
+      </c>
+      <c r="H30">
+        <v>1.873934503390532</v>
+      </c>
+      <c r="I30">
+        <v>0.9126760587246583</v>
+      </c>
+      <c r="J30">
+        <v>1.006893874635245</v>
+      </c>
+      <c r="K30">
+        <v>0.9126760587246583</v>
+      </c>
+      <c r="L30">
+        <v>1.074092204668683</v>
+      </c>
+      <c r="M30">
+        <v>0.9301975410909755</v>
+      </c>
+      <c r="N30">
+        <v>0.9301975410909755</v>
+      </c>
+      <c r="O30">
+        <v>0.8927397291327566</v>
+      </c>
+      <c r="P30">
+        <v>0.9243570469688698</v>
+      </c>
+      <c r="Q30">
+        <v>0.9243570469688698</v>
+      </c>
+      <c r="R30">
+        <v>0.9214367999078169</v>
+      </c>
+      <c r="S30">
+        <v>0.9214367999078169</v>
+      </c>
+      <c r="T30">
+        <v>1.078620604024784</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>0.8872120800598363</v>
+      </c>
+      <c r="D31">
+        <v>1.062823118384571</v>
+      </c>
+      <c r="E31">
+        <v>0.8872120800598363</v>
+      </c>
+      <c r="F31">
+        <v>0.8471499312244216</v>
+      </c>
+      <c r="G31">
+        <v>0.7887773159678759</v>
+      </c>
+      <c r="H31">
+        <v>2.147917874353528</v>
+      </c>
+      <c r="I31">
+        <v>0.8471499312244216</v>
+      </c>
+      <c r="J31">
+        <v>0.9823754394073977</v>
+      </c>
+      <c r="K31">
+        <v>0.8471499312244216</v>
+      </c>
+      <c r="L31">
+        <v>1.062823118384571</v>
+      </c>
+      <c r="M31">
+        <v>0.9750175992222037</v>
+      </c>
+      <c r="N31">
+        <v>0.9750175992222037</v>
+      </c>
+      <c r="O31">
+        <v>0.9129375048040944</v>
+      </c>
+      <c r="P31">
+        <v>0.932395043222943</v>
+      </c>
+      <c r="Q31">
+        <v>0.932395043222943</v>
+      </c>
+      <c r="R31">
+        <v>0.9110837652233126</v>
+      </c>
+      <c r="S31">
+        <v>0.9110837652233126</v>
+      </c>
+      <c r="T31">
+        <v>1.119375959899605</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>0.001304922223424658</v>
+      </c>
+      <c r="D32">
+        <v>1.349959227219178</v>
+      </c>
+      <c r="E32">
+        <v>0.001304922223424658</v>
+      </c>
+      <c r="F32">
+        <v>2.782427490164383</v>
+      </c>
+      <c r="G32">
+        <v>0.1132223844931507</v>
+      </c>
+      <c r="H32">
+        <v>0.2930950214219178</v>
+      </c>
+      <c r="I32">
+        <v>2.782427490164383</v>
+      </c>
+      <c r="J32">
+        <v>1.490606763150685</v>
+      </c>
+      <c r="K32">
+        <v>2.782427490164383</v>
+      </c>
+      <c r="L32">
+        <v>1.349959227219178</v>
+      </c>
+      <c r="M32">
+        <v>0.6756320747213014</v>
+      </c>
+      <c r="N32">
+        <v>0.6756320747213014</v>
+      </c>
+      <c r="O32">
+        <v>0.4881621779785845</v>
+      </c>
+      <c r="P32">
+        <v>1.377897213202328</v>
+      </c>
+      <c r="Q32">
+        <v>1.377897213202328</v>
+      </c>
+      <c r="R32">
+        <v>1.729029782442842</v>
+      </c>
+      <c r="S32">
+        <v>1.729029782442842</v>
+      </c>
+      <c r="T32">
+        <v>1.00510263477879</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>1.715041252566842</v>
+      </c>
+      <c r="D33">
+        <v>1.225597809473684</v>
+      </c>
+      <c r="E33">
+        <v>1.715041252566842</v>
+      </c>
+      <c r="F33">
+        <v>0.8652447347105264</v>
+      </c>
+      <c r="G33">
+        <v>0.5502725599661052</v>
+      </c>
+      <c r="H33">
+        <v>2.895641588147369</v>
+      </c>
+      <c r="I33">
+        <v>0.8652447347105264</v>
+      </c>
+      <c r="J33">
+        <v>0.8394994531578948</v>
+      </c>
+      <c r="K33">
+        <v>0.8652447347105264</v>
+      </c>
+      <c r="L33">
+        <v>1.225597809473684</v>
+      </c>
+      <c r="M33">
+        <v>1.470319531020263</v>
+      </c>
+      <c r="N33">
+        <v>1.470319531020263</v>
+      </c>
+      <c r="O33">
+        <v>1.163637207335544</v>
+      </c>
+      <c r="P33">
+        <v>1.268627932250351</v>
+      </c>
+      <c r="Q33">
+        <v>1.268627932250351</v>
+      </c>
+      <c r="R33">
+        <v>1.167782132865395</v>
+      </c>
+      <c r="S33">
+        <v>1.167782132865395</v>
+      </c>
+      <c r="T33">
+        <v>1.348549566337071</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>0.06081876347315789</v>
+      </c>
+      <c r="D34">
+        <v>0.964803806526316</v>
+      </c>
+      <c r="E34">
+        <v>0.06081876347315789</v>
+      </c>
+      <c r="F34">
+        <v>1.304694119921053</v>
+      </c>
+      <c r="G34">
+        <v>0.772116960432737</v>
+      </c>
+      <c r="H34">
+        <v>1.598563466323685</v>
+      </c>
+      <c r="I34">
+        <v>1.304694119921053</v>
+      </c>
+      <c r="J34">
+        <v>1.028328058947368</v>
+      </c>
+      <c r="K34">
+        <v>1.304694119921053</v>
+      </c>
+      <c r="L34">
+        <v>0.964803806526316</v>
+      </c>
+      <c r="M34">
+        <v>0.5128112849997369</v>
+      </c>
+      <c r="N34">
+        <v>0.5128112849997369</v>
+      </c>
+      <c r="O34">
+        <v>0.5992465101440704</v>
+      </c>
+      <c r="P34">
+        <v>0.7767722299735089</v>
+      </c>
+      <c r="Q34">
+        <v>0.7767722299735089</v>
+      </c>
+      <c r="R34">
+        <v>0.9087527024603949</v>
+      </c>
+      <c r="S34">
+        <v>0.9087527024603949</v>
+      </c>
+      <c r="T34">
+        <v>0.9548875292707194</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.3949200973915748</v>
+      </c>
+      <c r="D35">
+        <v>0.9498653083769131</v>
+      </c>
+      <c r="E35">
+        <v>0.3949200973915748</v>
+      </c>
+      <c r="F35">
+        <v>0.4509171433483361</v>
+      </c>
+      <c r="G35">
+        <v>0.4104272748279622</v>
+      </c>
+      <c r="H35">
+        <v>6.674062294677318</v>
+      </c>
+      <c r="I35">
+        <v>0.4509171433483361</v>
+      </c>
+      <c r="J35">
+        <v>0.6890002015087067</v>
+      </c>
+      <c r="K35">
+        <v>0.4509171433483361</v>
+      </c>
+      <c r="L35">
+        <v>0.9498653083769131</v>
+      </c>
+      <c r="M35">
+        <v>0.6723927028842439</v>
+      </c>
+      <c r="N35">
+        <v>0.6723927028842439</v>
+      </c>
+      <c r="O35">
+        <v>0.58507089353215</v>
+      </c>
+      <c r="P35">
+        <v>0.5985675163722747</v>
+      </c>
+      <c r="Q35">
+        <v>0.5985675163722747</v>
+      </c>
+      <c r="R35">
+        <v>0.56165492311629</v>
+      </c>
+      <c r="S35">
+        <v>0.56165492311629</v>
+      </c>
+      <c r="T35">
+        <v>1.594865386688469</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1.000290501809154</v>
+      </c>
+      <c r="D36">
+        <v>1.007374740102396</v>
+      </c>
+      <c r="E36">
+        <v>1.000290501809154</v>
+      </c>
+      <c r="F36">
+        <v>0.9847925297779825</v>
+      </c>
+      <c r="G36">
+        <v>1.000655066696593</v>
+      </c>
+      <c r="H36">
+        <v>1.009915615893193</v>
+      </c>
+      <c r="I36">
+        <v>0.9847925297779825</v>
+      </c>
+      <c r="J36">
+        <v>1.000338537247515</v>
+      </c>
+      <c r="K36">
+        <v>0.9847925297779825</v>
+      </c>
+      <c r="L36">
+        <v>1.007374740102396</v>
+      </c>
+      <c r="M36">
+        <v>1.003832620955775</v>
+      </c>
+      <c r="N36">
+        <v>1.003832620955775</v>
+      </c>
+      <c r="O36">
+        <v>1.002773436202715</v>
+      </c>
+      <c r="P36">
+        <v>0.9974859238965109</v>
+      </c>
+      <c r="Q36">
+        <v>0.9974859238965109</v>
+      </c>
+      <c r="R36">
+        <v>0.9943125753668788</v>
+      </c>
+      <c r="S36">
+        <v>0.9943125753668788</v>
+      </c>
+      <c r="T36">
+        <v>1.000561165254472</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.9950721127775189</v>
+      </c>
+      <c r="D37">
+        <v>0.9853734091398337</v>
+      </c>
+      <c r="E37">
+        <v>0.9950721127775189</v>
+      </c>
+      <c r="F37">
+        <v>1.021469815373089</v>
+      </c>
+      <c r="G37">
+        <v>0.9971536828588041</v>
+      </c>
+      <c r="H37">
+        <v>1.006918061657909</v>
+      </c>
+      <c r="I37">
+        <v>1.021469815373089</v>
+      </c>
+      <c r="J37">
+        <v>0.996861698251174</v>
+      </c>
+      <c r="K37">
+        <v>1.021469815373089</v>
+      </c>
+      <c r="L37">
+        <v>0.9853734091398337</v>
+      </c>
+      <c r="M37">
+        <v>0.9902227609586763</v>
+      </c>
+      <c r="N37">
+        <v>0.9902227609586763</v>
+      </c>
+      <c r="O37">
+        <v>0.9925330682587189</v>
+      </c>
+      <c r="P37">
+        <v>1.00063844576348</v>
+      </c>
+      <c r="Q37">
+        <v>1.00063844576348</v>
+      </c>
+      <c r="R37">
+        <v>1.005846288165883</v>
+      </c>
+      <c r="S37">
+        <v>1.005846288165883</v>
+      </c>
+      <c r="T37">
+        <v>1.000474796676388</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0.9929689349309244</v>
+      </c>
+      <c r="D38">
+        <v>1.031089238639818</v>
+      </c>
+      <c r="E38">
+        <v>0.9929689349309244</v>
+      </c>
+      <c r="F38">
+        <v>1.003929477448791</v>
+      </c>
+      <c r="G38">
+        <v>0.9868862291682501</v>
+      </c>
+      <c r="H38">
+        <v>1.010359842359819</v>
+      </c>
+      <c r="I38">
+        <v>1.003929477448791</v>
+      </c>
+      <c r="J38">
+        <v>1.008750642560268</v>
+      </c>
+      <c r="K38">
+        <v>1.003929477448791</v>
+      </c>
+      <c r="L38">
+        <v>1.031089238639818</v>
+      </c>
+      <c r="M38">
+        <v>1.012029086785371</v>
+      </c>
+      <c r="N38">
+        <v>1.012029086785371</v>
+      </c>
+      <c r="O38">
+        <v>1.003648134246331</v>
+      </c>
+      <c r="P38">
+        <v>1.009329217006511</v>
+      </c>
+      <c r="Q38">
+        <v>1.009329217006511</v>
+      </c>
+      <c r="R38">
+        <v>1.007979282117081</v>
+      </c>
+      <c r="S38">
+        <v>1.007979282117081</v>
+      </c>
+      <c r="T38">
+        <v>1.005664060851312</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>0.9692386334863592</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>1.106552288688772</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>0.9692386334863592</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>0.890923512350164</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>0.9745991205876131</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>1.002329848046041</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>0.890923512350164</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>1.051791584055703</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>0.890923512350164</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>1.106552288688772</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>1.037895461087566</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>1.037895461087566</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>1.016796680920915</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.9889048115084318</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>0.9889048115084318</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>0.9644094867188648</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.9644094867188648</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>0.9992391645357754</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>0.8787266687408447</v>
+      </c>
+      <c r="D40">
+        <v>1.162725827127974</v>
+      </c>
+      <c r="E40">
+        <v>0.8787266687408447</v>
+      </c>
+      <c r="F40">
+        <v>0.9164324211658943</v>
+      </c>
+      <c r="G40">
+        <v>0.8958610448444869</v>
+      </c>
+      <c r="H40">
+        <v>1.127416463379675</v>
+      </c>
+      <c r="I40">
+        <v>0.9164324211658943</v>
+      </c>
+      <c r="J40">
+        <v>1.056180497192631</v>
+      </c>
+      <c r="K40">
+        <v>0.9164324211658943</v>
+      </c>
+      <c r="L40">
+        <v>1.162725827127974</v>
+      </c>
+      <c r="M40">
+        <v>1.020726247934409</v>
+      </c>
+      <c r="N40">
+        <v>1.020726247934409</v>
+      </c>
+      <c r="O40">
+        <v>0.9791045135711017</v>
+      </c>
+      <c r="P40">
+        <v>0.985961639011571</v>
+      </c>
+      <c r="Q40">
+        <v>0.985961639011571</v>
+      </c>
+      <c r="R40">
+        <v>0.9685793345501519</v>
+      </c>
+      <c r="S40">
+        <v>0.9685793345501519</v>
+      </c>
+      <c r="T40">
+        <v>1.006223820408584</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.9956723686591071</v>
+      </c>
+      <c r="D41">
+        <v>0.9651126387599425</v>
+      </c>
+      <c r="E41">
+        <v>0.9956723686591071</v>
+      </c>
+      <c r="F41">
+        <v>1.042669018475552</v>
+      </c>
+      <c r="G41">
+        <v>1.048365906280545</v>
+      </c>
+      <c r="H41">
+        <v>0.8387389312303994</v>
+      </c>
+      <c r="I41">
+        <v>1.042669018475552</v>
+      </c>
+      <c r="J41">
+        <v>0.9862918158683409</v>
+      </c>
+      <c r="K41">
+        <v>1.042669018475552</v>
+      </c>
+      <c r="L41">
+        <v>0.9651126387599425</v>
+      </c>
+      <c r="M41">
+        <v>0.9803925037095248</v>
+      </c>
+      <c r="N41">
+        <v>0.9803925037095248</v>
+      </c>
+      <c r="O41">
+        <v>1.003050304566531</v>
+      </c>
+      <c r="P41">
+        <v>1.001151341964867</v>
+      </c>
+      <c r="Q41">
+        <v>1.001151341964867</v>
+      </c>
+      <c r="R41">
+        <v>1.011530761092538</v>
+      </c>
+      <c r="S41">
+        <v>1.011530761092538</v>
+      </c>
+      <c r="T41">
+        <v>0.9794751132123144</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0.3312457405403221</v>
+      </c>
+      <c r="D42">
+        <v>1.118782774415153</v>
+      </c>
+      <c r="E42">
+        <v>0.3312457405403221</v>
+      </c>
+      <c r="F42">
+        <v>1.413640143634515</v>
+      </c>
+      <c r="G42">
+        <v>0.6398423442192879</v>
+      </c>
+      <c r="H42">
+        <v>1.026365105195881</v>
+      </c>
+      <c r="I42">
+        <v>1.413640143634515</v>
+      </c>
+      <c r="J42">
+        <v>1.199500487301854</v>
+      </c>
+      <c r="K42">
+        <v>1.413640143634515</v>
+      </c>
+      <c r="L42">
+        <v>1.118782774415153</v>
+      </c>
+      <c r="M42">
+        <v>0.7250142574777374</v>
+      </c>
+      <c r="N42">
+        <v>0.7250142574777374</v>
+      </c>
+      <c r="O42">
+        <v>0.6966236197249209</v>
+      </c>
+      <c r="P42">
+        <v>0.9545562195299966</v>
+      </c>
+      <c r="Q42">
+        <v>0.9545562195299966</v>
+      </c>
+      <c r="R42">
+        <v>1.069327200556126</v>
+      </c>
+      <c r="S42">
+        <v>1.069327200556126</v>
+      </c>
+      <c r="T42">
+        <v>0.9548960992178354</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Gamma1F-HW10.xlsx
+++ b/JupyterNotebooks/AvgHW/Gamma1F-HW10.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,46 +85,43 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
     <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +573,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +582,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,61 +644,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.07381763094648</v>
+        <v>0.9958652497436996</v>
       </c>
       <c r="D3">
-        <v>0.9601895350780444</v>
+        <v>0.9998190811639077</v>
       </c>
       <c r="E3">
-        <v>1.017957790236212</v>
+        <v>0.9958652497436996</v>
       </c>
       <c r="F3">
-        <v>1.07381763094648</v>
+        <v>1.001313324131963</v>
       </c>
       <c r="G3">
-        <v>0.9755725037233601</v>
+        <v>0.996882799224927</v>
       </c>
       <c r="H3">
-        <v>0.9610370078954977</v>
+        <v>1.023818690760413</v>
       </c>
       <c r="I3">
-        <v>1.020412262256542</v>
+        <v>1.001313324131963</v>
       </c>
       <c r="J3">
-        <v>0.9601895350780444</v>
+        <v>0.9986663006825309</v>
       </c>
       <c r="K3">
-        <v>1.07381763094648</v>
+        <v>1.001313324131963</v>
       </c>
       <c r="L3">
-        <v>1.017957790236212</v>
+        <v>0.9998190811639077</v>
       </c>
       <c r="M3">
-        <v>0.9890736626571279</v>
+        <v>0.9978421654538037</v>
       </c>
       <c r="N3">
-        <v>0.9890736626571279</v>
+        <v>0.9978421654538037</v>
       </c>
       <c r="O3">
-        <v>0.9797281110699179</v>
+        <v>0.9975223767108448</v>
       </c>
       <c r="P3">
-        <v>1.017321652086912</v>
+        <v>0.9989992183465235</v>
       </c>
       <c r="Q3">
-        <v>1.017321652086912</v>
+        <v>0.9989992183465234</v>
       </c>
       <c r="R3">
-        <v>1.031445646801804</v>
+        <v>0.9995777447928833</v>
       </c>
       <c r="S3">
-        <v>1.031445646801804</v>
+        <v>0.9995777447928833</v>
       </c>
       <c r="T3">
-        <v>1.001497788356023</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
+        <v>1.002727574284574</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,61 +706,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.142582386995078</v>
+        <v>0.8787266687408447</v>
       </c>
       <c r="D4">
-        <v>0.9215080898239538</v>
+        <v>1.162725827127974</v>
       </c>
       <c r="E4">
-        <v>1.030523892603836</v>
+        <v>0.8787266687408447</v>
       </c>
       <c r="F4">
-        <v>1.142582386995078</v>
+        <v>0.9164324211658943</v>
       </c>
       <c r="G4">
-        <v>0.9586446249200699</v>
+        <v>0.8958610448444869</v>
       </c>
       <c r="H4">
-        <v>0.9242174231966434</v>
+        <v>1.127416463379675</v>
       </c>
       <c r="I4">
-        <v>1.039788421852951</v>
+        <v>0.9164324211658943</v>
       </c>
       <c r="J4">
-        <v>0.9215080898239538</v>
+        <v>1.056180497192631</v>
       </c>
       <c r="K4">
-        <v>1.142582386995078</v>
+        <v>0.9164324211658943</v>
       </c>
       <c r="L4">
-        <v>1.030523892603836</v>
+        <v>1.162725827127974</v>
       </c>
       <c r="M4">
-        <v>0.976015991213895</v>
+        <v>1.020726247934409</v>
       </c>
       <c r="N4">
-        <v>0.976015991213895</v>
+        <v>1.020726247934409</v>
       </c>
       <c r="O4">
-        <v>0.9587498018748111</v>
+        <v>0.9791045135711017</v>
       </c>
       <c r="P4">
-        <v>1.031538123140956</v>
+        <v>0.985961639011571</v>
       </c>
       <c r="Q4">
-        <v>1.031538123140956</v>
+        <v>0.985961639011571</v>
       </c>
       <c r="R4">
-        <v>1.059299189104487</v>
+        <v>0.9685793345501519</v>
       </c>
       <c r="S4">
-        <v>1.059299189104487</v>
+        <v>0.9685793345501519</v>
       </c>
       <c r="T4">
-        <v>1.002877473232089</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+        <v>1.006223820408584</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,61 +768,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.279068129654216</v>
+        <v>0.7411408149377428</v>
       </c>
       <c r="D5">
-        <v>0.8565830899716373</v>
+        <v>1.073986001285301</v>
       </c>
       <c r="E5">
-        <v>1.06470269230296</v>
+        <v>0.7411408149377428</v>
       </c>
       <c r="F5">
-        <v>1.279068129654216</v>
+        <v>0.9233306149582157</v>
       </c>
       <c r="G5">
-        <v>0.9371532851348956</v>
+        <v>0.7828375498171726</v>
       </c>
       <c r="H5">
-        <v>0.8591990023733468</v>
+        <v>2.081841208986201</v>
       </c>
       <c r="I5">
-        <v>1.087160497681665</v>
+        <v>0.9233306149582157</v>
       </c>
       <c r="J5">
-        <v>0.8565830899716373</v>
+        <v>1.002171309971182</v>
       </c>
       <c r="K5">
-        <v>1.279068129654216</v>
+        <v>0.9233306149582157</v>
       </c>
       <c r="L5">
-        <v>1.06470269230296</v>
+        <v>1.073986001285301</v>
       </c>
       <c r="M5">
-        <v>0.9606428911372988</v>
+        <v>0.9075634081115217</v>
       </c>
       <c r="N5">
-        <v>0.9606428911372988</v>
+        <v>0.9075634081115217</v>
       </c>
       <c r="O5">
-        <v>0.9268282615493147</v>
+        <v>0.8659881220134054</v>
       </c>
       <c r="P5">
-        <v>1.066784637309605</v>
+        <v>0.9128191437270864</v>
       </c>
       <c r="Q5">
-        <v>1.066784637309605</v>
+        <v>0.9128191437270864</v>
       </c>
       <c r="R5">
-        <v>1.119855510395757</v>
+        <v>0.9154470115348687</v>
       </c>
       <c r="S5">
-        <v>1.119855510395757</v>
+        <v>0.9154470115348687</v>
       </c>
       <c r="T5">
-        <v>1.01397778285312</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
+        <v>1.100884583325969</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,61 +830,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.47127204172989</v>
+        <v>0.3949200973915748</v>
       </c>
       <c r="D6">
-        <v>0.7483519676763585</v>
+        <v>0.9498653083769131</v>
       </c>
       <c r="E6">
-        <v>1.189195082091752</v>
+        <v>0.3949200973915748</v>
       </c>
       <c r="F6">
-        <v>1.47127204172989</v>
+        <v>0.4509171433483361</v>
       </c>
       <c r="G6">
-        <v>0.8439437105659937</v>
+        <v>0.4104272748279622</v>
       </c>
       <c r="H6">
-        <v>0.825063012059378</v>
+        <v>6.674062294677318</v>
       </c>
       <c r="I6">
-        <v>1.127865945223569</v>
+        <v>0.4509171433483361</v>
       </c>
       <c r="J6">
-        <v>0.7483519676763585</v>
+        <v>0.6890002015087067</v>
       </c>
       <c r="K6">
-        <v>1.47127204172989</v>
+        <v>0.4509171433483361</v>
       </c>
       <c r="L6">
-        <v>1.189195082091752</v>
+        <v>0.9498653083769131</v>
       </c>
       <c r="M6">
-        <v>0.9687735248840552</v>
+        <v>0.6723927028842439</v>
       </c>
       <c r="N6">
-        <v>0.9687735248840552</v>
+        <v>0.6723927028842439</v>
       </c>
       <c r="O6">
-        <v>0.9208700206091628</v>
+        <v>0.58507089353215</v>
       </c>
       <c r="P6">
-        <v>1.136273030499334</v>
+        <v>0.5985675163722747</v>
       </c>
       <c r="Q6">
-        <v>1.136273030499334</v>
+        <v>0.5985675163722747</v>
       </c>
       <c r="R6">
-        <v>1.220022783306973</v>
+        <v>0.56165492311629</v>
       </c>
       <c r="S6">
-        <v>1.220022783306973</v>
+        <v>0.56165492311629</v>
       </c>
       <c r="T6">
-        <v>1.034281959891157</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+        <v>1.594865386688469</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,61 +892,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000000682939784</v>
+        <v>0.952067099555559</v>
       </c>
       <c r="D7">
-        <v>0.9986870185421101</v>
+        <v>1.015969525539608</v>
       </c>
       <c r="E7">
-        <v>0.9998365226127055</v>
+        <v>0.952067099555559</v>
       </c>
       <c r="F7">
-        <v>1.000000682939784</v>
+        <v>1.072519008767067</v>
       </c>
       <c r="G7">
-        <v>1.010546527182583</v>
+        <v>0.9600620902120176</v>
       </c>
       <c r="H7">
-        <v>0.9986132701353588</v>
+        <v>0.9720715001595985</v>
       </c>
       <c r="I7">
-        <v>0.9993504861815077</v>
+        <v>1.072519008767067</v>
       </c>
       <c r="J7">
-        <v>0.9986870185421101</v>
+        <v>1.02329979377848</v>
       </c>
       <c r="K7">
-        <v>1.000000682939784</v>
+        <v>1.072519008767067</v>
       </c>
       <c r="L7">
-        <v>0.9998365226127055</v>
+        <v>1.015969525539608</v>
       </c>
       <c r="M7">
-        <v>0.9992617705774078</v>
+        <v>0.9840183125475837</v>
       </c>
       <c r="N7">
-        <v>0.9992617705774078</v>
+        <v>0.9840183125475837</v>
       </c>
       <c r="O7">
-        <v>0.9990456037633915</v>
+        <v>0.9760329051023949</v>
       </c>
       <c r="P7">
-        <v>0.9995080746981998</v>
+        <v>1.013518544620745</v>
       </c>
       <c r="Q7">
-        <v>0.9995080746981998</v>
+        <v>1.013518544620745</v>
       </c>
       <c r="R7">
-        <v>0.9996312267585958</v>
+        <v>1.028268660657325</v>
       </c>
       <c r="S7">
-        <v>0.9996312267585958</v>
+        <v>1.028268660657325</v>
       </c>
       <c r="T7">
-        <v>1.001172417932342</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>0.999331503002055</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,61 +954,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.001313324131964</v>
+        <v>0.9950721127775189</v>
       </c>
       <c r="D8">
-        <v>0.9958652497436996</v>
+        <v>0.9853734091398337</v>
       </c>
       <c r="E8">
-        <v>0.9998190811639079</v>
+        <v>0.9950721127775189</v>
       </c>
       <c r="F8">
-        <v>1.001313324131964</v>
+        <v>1.021469815373089</v>
       </c>
       <c r="G8">
-        <v>1.023818690760411</v>
+        <v>0.9971536828588041</v>
       </c>
       <c r="H8">
-        <v>0.9968827992249266</v>
+        <v>1.006918061657909</v>
       </c>
       <c r="I8">
-        <v>0.9986663006825305</v>
+        <v>1.021469815373089</v>
       </c>
       <c r="J8">
-        <v>0.9958652497436996</v>
+        <v>0.996861698251174</v>
       </c>
       <c r="K8">
-        <v>1.001313324131964</v>
+        <v>1.021469815373089</v>
       </c>
       <c r="L8">
-        <v>0.9998190811639079</v>
+        <v>0.9853734091398337</v>
       </c>
       <c r="M8">
-        <v>0.9978421654538038</v>
+        <v>0.9902227609586763</v>
       </c>
       <c r="N8">
-        <v>0.9978421654538038</v>
+        <v>0.9902227609586763</v>
       </c>
       <c r="O8">
-        <v>0.9975223767108448</v>
+        <v>0.9925330682587189</v>
       </c>
       <c r="P8">
-        <v>0.9989992183465238</v>
+        <v>1.00063844576348</v>
       </c>
       <c r="Q8">
-        <v>0.9989992183465238</v>
+        <v>1.00063844576348</v>
       </c>
       <c r="R8">
-        <v>0.9995777447928837</v>
+        <v>1.005846288165883</v>
       </c>
       <c r="S8">
-        <v>0.9995777447928837</v>
+        <v>1.005846288165883</v>
       </c>
       <c r="T8">
-        <v>1.002727574284573</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>1.000474796676388</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,61 +1016,61 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.005491780791936</v>
+        <v>0.9215080898239538</v>
       </c>
       <c r="D9">
-        <v>0.9939060986677778</v>
+        <v>1.030523892603836</v>
       </c>
       <c r="E9">
-        <v>0.9995920290974557</v>
+        <v>0.9215080898239538</v>
       </c>
       <c r="F9">
-        <v>1.005491780791936</v>
+        <v>1.142582386995078</v>
       </c>
       <c r="G9">
-        <v>1.028071609414475</v>
+        <v>0.9242174231966434</v>
       </c>
       <c r="H9">
-        <v>0.9948249117223862</v>
+        <v>0.9586446249200699</v>
       </c>
       <c r="I9">
-        <v>0.9983785899873611</v>
+        <v>1.142582386995078</v>
       </c>
       <c r="J9">
-        <v>0.9939060986677778</v>
+        <v>1.039788421852951</v>
       </c>
       <c r="K9">
-        <v>1.005491780791936</v>
+        <v>1.142582386995078</v>
       </c>
       <c r="L9">
-        <v>0.9995920290974557</v>
+        <v>1.030523892603836</v>
       </c>
       <c r="M9">
-        <v>0.9967490638826167</v>
+        <v>0.9760159912138952</v>
       </c>
       <c r="N9">
-        <v>0.9967490638826167</v>
+        <v>0.9760159912138952</v>
       </c>
       <c r="O9">
-        <v>0.9961076798292066</v>
+        <v>0.9587498018748112</v>
       </c>
       <c r="P9">
-        <v>0.9996633028523897</v>
+        <v>1.031538123140956</v>
       </c>
       <c r="Q9">
-        <v>0.9996633028523898</v>
+        <v>1.031538123140956</v>
       </c>
       <c r="R9">
-        <v>1.001120422337276</v>
+        <v>1.059299189104487</v>
       </c>
       <c r="S9">
-        <v>1.001120422337276</v>
+        <v>1.059299189104487</v>
       </c>
       <c r="T9">
-        <v>1.003377503280232</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
+        <v>1.002877473232089</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,61 +1078,61 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.007925335539764</v>
+        <v>0.44015206085804</v>
       </c>
       <c r="D10">
-        <v>0.9890394651328582</v>
+        <v>0.9416649267566171</v>
       </c>
       <c r="E10">
-        <v>0.9983108581774848</v>
+        <v>0.44015206085804</v>
       </c>
       <c r="F10">
-        <v>1.007925335539764</v>
+        <v>0.4323778379548982</v>
       </c>
       <c r="G10">
-        <v>1.069118188173494</v>
+        <v>0.3931400384999672</v>
       </c>
       <c r="H10">
-        <v>0.9891748496048505</v>
+        <v>6.803117675845459</v>
       </c>
       <c r="I10">
-        <v>0.9956723852817739</v>
+        <v>0.4323778379548982</v>
       </c>
       <c r="J10">
-        <v>0.9890394651328582</v>
+        <v>0.6789229430157604</v>
       </c>
       <c r="K10">
-        <v>1.007925335539764</v>
+        <v>0.4323778379548982</v>
       </c>
       <c r="L10">
-        <v>0.9983108581774848</v>
+        <v>0.9416649267566171</v>
       </c>
       <c r="M10">
-        <v>0.9936751616551716</v>
+        <v>0.6909084938073285</v>
       </c>
       <c r="N10">
-        <v>0.9936751616551716</v>
+        <v>0.6909084938073285</v>
       </c>
       <c r="O10">
-        <v>0.992175057638398</v>
+        <v>0.5916523420382082</v>
       </c>
       <c r="P10">
-        <v>0.9984252196167024</v>
+        <v>0.6047316085231851</v>
       </c>
       <c r="Q10">
-        <v>0.9984252196167024</v>
+        <v>0.6047316085231851</v>
       </c>
       <c r="R10">
-        <v>1.000800248597468</v>
+        <v>0.5616431658811134</v>
       </c>
       <c r="S10">
-        <v>1.000800248597468</v>
+        <v>0.5616431658811134</v>
       </c>
       <c r="T10">
-        <v>1.008206846985038</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
+        <v>1.61489591382179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,61 +1140,61 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.022234647396581</v>
+        <v>0.7304773233407644</v>
       </c>
       <c r="D11">
-        <v>0.979234886444028</v>
+        <v>1.148585574578476</v>
       </c>
       <c r="E11">
-        <v>0.9967384527386056</v>
+        <v>0.7304773233407644</v>
       </c>
       <c r="F11">
-        <v>1.022234647396581</v>
+        <v>1.019490242263407</v>
       </c>
       <c r="G11">
-        <v>1.100564402484872</v>
+        <v>0.8995688418055298</v>
       </c>
       <c r="H11">
-        <v>0.9817380648883496</v>
+        <v>0.852936296410452</v>
       </c>
       <c r="I11">
-        <v>0.9946650368647193</v>
+        <v>1.019490242263407</v>
       </c>
       <c r="J11">
-        <v>0.979234886444028</v>
+        <v>1.095436250727557</v>
       </c>
       <c r="K11">
-        <v>1.022234647396581</v>
+        <v>1.019490242263407</v>
       </c>
       <c r="L11">
-        <v>0.9967384527386056</v>
+        <v>1.148585574578476</v>
       </c>
       <c r="M11">
-        <v>0.9879866695913169</v>
+        <v>0.9395314489596203</v>
       </c>
       <c r="N11">
-        <v>0.9879866695913169</v>
+        <v>0.9395314489596203</v>
       </c>
       <c r="O11">
-        <v>0.9859038013569945</v>
+        <v>0.9262105799082567</v>
       </c>
       <c r="P11">
-        <v>0.9994026621930717</v>
+        <v>0.9661843800608825</v>
       </c>
       <c r="Q11">
-        <v>0.9994026621930715</v>
+        <v>0.9661843800608825</v>
       </c>
       <c r="R11">
-        <v>1.005110658493949</v>
+        <v>0.9795108456115136</v>
       </c>
       <c r="S11">
-        <v>1.005110658493949</v>
+        <v>0.9795108456115136</v>
       </c>
       <c r="T11">
-        <v>1.012529248469526</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
+        <v>0.9577490881876978</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,61 +1202,61 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.532267258639386</v>
+        <v>0.9054659934401683</v>
       </c>
       <c r="D12">
-        <v>0.8486630064466159</v>
+        <v>1.067145907621052</v>
       </c>
       <c r="E12">
-        <v>0.6693560817068323</v>
+        <v>0.9054659934401683</v>
       </c>
       <c r="F12">
-        <v>1.532267258639386</v>
+        <v>0.7860755035168433</v>
       </c>
       <c r="G12">
-        <v>0.08048465139390706</v>
+        <v>0.7738804762297209</v>
       </c>
       <c r="H12">
-        <v>1.230359668113492</v>
+        <v>2.454075536128577</v>
       </c>
       <c r="I12">
-        <v>0.9583033382359375</v>
+        <v>0.7860755035168433</v>
       </c>
       <c r="J12">
-        <v>0.8486630064466159</v>
+        <v>0.9547267008526316</v>
       </c>
       <c r="K12">
-        <v>1.532267258639386</v>
+        <v>0.7860755035168433</v>
       </c>
       <c r="L12">
-        <v>0.6693560817068323</v>
+        <v>1.067145907621052</v>
       </c>
       <c r="M12">
-        <v>0.7590095440767241</v>
+        <v>0.9863059505306101</v>
       </c>
       <c r="N12">
-        <v>0.7590095440767241</v>
+        <v>0.9863059505306101</v>
       </c>
       <c r="O12">
-        <v>0.9161262520889801</v>
+        <v>0.9154974590969803</v>
       </c>
       <c r="P12">
-        <v>1.016762115597611</v>
+        <v>0.9195624681926878</v>
       </c>
       <c r="Q12">
-        <v>1.016762115597611</v>
+        <v>0.9195624681926878</v>
       </c>
       <c r="R12">
-        <v>1.145638401358055</v>
+        <v>0.8861907270237267</v>
       </c>
       <c r="S12">
-        <v>1.145638401358055</v>
+        <v>0.8861907270237267</v>
       </c>
       <c r="T12">
-        <v>0.886572334089362</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+        <v>1.156895019631499</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,61 +1264,61 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.7370958989984405</v>
+        <v>1.473008905048232</v>
       </c>
       <c r="D13">
-        <v>1.430676343334623</v>
+        <v>0.8802694588574312</v>
       </c>
       <c r="E13">
-        <v>1.136867111548494</v>
+        <v>1.473008905048232</v>
       </c>
       <c r="F13">
-        <v>0.7370958989984405</v>
+        <v>1.001050170503245</v>
       </c>
       <c r="G13">
-        <v>1.069987043572601</v>
+        <v>1.119779481671348</v>
       </c>
       <c r="H13">
-        <v>0.9647252935279274</v>
+        <v>0.7007226765619768</v>
       </c>
       <c r="I13">
-        <v>0.9929843792938183</v>
+        <v>1.001050170503245</v>
       </c>
       <c r="J13">
-        <v>1.430676343334623</v>
+        <v>0.938757004419024</v>
       </c>
       <c r="K13">
-        <v>0.7370958989984405</v>
+        <v>1.001050170503245</v>
       </c>
       <c r="L13">
-        <v>1.136867111548494</v>
+        <v>0.8802694588574312</v>
       </c>
       <c r="M13">
-        <v>1.283771727441559</v>
+        <v>1.176639181952831</v>
       </c>
       <c r="N13">
-        <v>1.283771727441559</v>
+        <v>1.176639181952831</v>
       </c>
       <c r="O13">
-        <v>1.177422916137015</v>
+        <v>1.15768594852567</v>
       </c>
       <c r="P13">
-        <v>1.101546451293853</v>
+        <v>1.118109511469636</v>
       </c>
       <c r="Q13">
-        <v>1.101546451293853</v>
+        <v>1.118109511469636</v>
       </c>
       <c r="R13">
-        <v>1.010433813219999</v>
+        <v>1.088844676228038</v>
       </c>
       <c r="S13">
-        <v>1.010433813219999</v>
+        <v>1.088844676228038</v>
       </c>
       <c r="T13">
-        <v>1.055389345045984</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
+        <v>1.018931282843543</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,61 +1326,61 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.427136596211692</v>
+        <v>-0.003255679799999996</v>
       </c>
       <c r="D14">
-        <v>1.185810061099715</v>
+        <v>0.8252917000000006</v>
       </c>
       <c r="E14">
-        <v>0.6377965460857163</v>
+        <v>-0.003255679799999996</v>
       </c>
       <c r="F14">
-        <v>1.427136596211692</v>
+        <v>0.007481255500000003</v>
       </c>
       <c r="G14">
-        <v>0.09327136695317693</v>
+        <v>-0.003116856899999998</v>
       </c>
       <c r="H14">
-        <v>1.207130680221456</v>
+        <v>11.47787300000001</v>
       </c>
       <c r="I14">
-        <v>0.9867270985990667</v>
+        <v>0.007481255500000003</v>
       </c>
       <c r="J14">
-        <v>1.185810061099715</v>
+        <v>0.3721673800000003</v>
       </c>
       <c r="K14">
-        <v>1.427136596211692</v>
+        <v>0.007481255500000003</v>
       </c>
       <c r="L14">
-        <v>0.6377965460857163</v>
+        <v>0.8252917000000006</v>
       </c>
       <c r="M14">
-        <v>0.9118033035927156</v>
+        <v>0.4110180101000003</v>
       </c>
       <c r="N14">
-        <v>0.9118033035927156</v>
+        <v>0.4110180101000003</v>
       </c>
       <c r="O14">
-        <v>1.010245762468962</v>
+        <v>0.2729730544333336</v>
       </c>
       <c r="P14">
-        <v>1.083581067799041</v>
+        <v>0.2765057585666669</v>
       </c>
       <c r="Q14">
-        <v>1.083581067799041</v>
+        <v>0.2765057585666669</v>
       </c>
       <c r="R14">
-        <v>1.169469949902204</v>
+        <v>0.2092496328000002</v>
       </c>
       <c r="S14">
-        <v>1.169469949902204</v>
+        <v>0.2092496328000002</v>
       </c>
       <c r="T14">
-        <v>0.922978724861804</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
+        <v>2.112740133133336</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,61 +1388,61 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.6604641208295891</v>
+        <v>0.0006486686500000001</v>
       </c>
       <c r="D15">
-        <v>1.057916784435557</v>
+        <v>0.026860481</v>
       </c>
       <c r="E15">
-        <v>1.149725554810864</v>
+        <v>0.0006486686500000001</v>
       </c>
       <c r="F15">
-        <v>0.6604641208295891</v>
+        <v>7.6546011</v>
       </c>
       <c r="G15">
-        <v>1.138874882531725</v>
+        <v>0.05715137000000001</v>
       </c>
       <c r="H15">
-        <v>1.076653969790704</v>
+        <v>0.0074812554</v>
       </c>
       <c r="I15">
-        <v>0.9407419295904441</v>
+        <v>7.6546011</v>
       </c>
       <c r="J15">
-        <v>1.057916784435557</v>
+        <v>0.60377661</v>
       </c>
       <c r="K15">
-        <v>0.6604641208295891</v>
+        <v>7.6546011</v>
       </c>
       <c r="L15">
-        <v>1.149725554810864</v>
+        <v>0.026860481</v>
       </c>
       <c r="M15">
-        <v>1.103821169623211</v>
+        <v>0.013754574825</v>
       </c>
       <c r="N15">
-        <v>1.103821169623211</v>
+        <v>0.013754574825</v>
       </c>
       <c r="O15">
-        <v>1.094765436345708</v>
+        <v>0.02822017321666667</v>
       </c>
       <c r="P15">
-        <v>0.9560354866920037</v>
+        <v>2.56070341655</v>
       </c>
       <c r="Q15">
-        <v>0.9560354866920036</v>
+        <v>2.56070341655</v>
       </c>
       <c r="R15">
-        <v>0.8821426452264</v>
+        <v>3.8341778374125</v>
       </c>
       <c r="S15">
-        <v>0.8821426452264</v>
+        <v>3.8341778374125</v>
       </c>
       <c r="T15">
-        <v>1.004062873664814</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
+        <v>1.391753247508333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9847925297779823</v>
+        <v>0.0040034715</v>
       </c>
       <c r="D16">
-        <v>1.000290501809154</v>
+        <v>3.8304134</v>
       </c>
       <c r="E16">
-        <v>1.007374740102396</v>
+        <v>0.0040034715</v>
       </c>
       <c r="F16">
-        <v>0.9847925297779823</v>
+        <v>0.026860309</v>
       </c>
       <c r="G16">
-        <v>1.009915615893193</v>
+        <v>0.087096221</v>
       </c>
       <c r="H16">
-        <v>1.000655066696593</v>
+        <v>0.82520477</v>
       </c>
       <c r="I16">
-        <v>1.000338537247515</v>
+        <v>0.026860309</v>
       </c>
       <c r="J16">
-        <v>1.000290501809154</v>
+        <v>1.6908918</v>
       </c>
       <c r="K16">
-        <v>0.9847925297779823</v>
+        <v>0.026860309</v>
       </c>
       <c r="L16">
-        <v>1.007374740102396</v>
+        <v>3.8304134</v>
       </c>
       <c r="M16">
-        <v>1.003832620955775</v>
+        <v>1.91720843575</v>
       </c>
       <c r="N16">
-        <v>1.003832620955775</v>
+        <v>1.91720843575</v>
       </c>
       <c r="O16">
-        <v>1.002773436202714</v>
+        <v>1.307171030833333</v>
       </c>
       <c r="P16">
-        <v>0.9974859238965106</v>
+        <v>1.2870923935</v>
       </c>
       <c r="Q16">
-        <v>0.9974859238965107</v>
+        <v>1.2870923935</v>
       </c>
       <c r="R16">
-        <v>0.9943125753668787</v>
+        <v>0.9720343723749999</v>
       </c>
       <c r="S16">
-        <v>0.9943125753668787</v>
+        <v>0.9720343723749999</v>
       </c>
       <c r="T16">
-        <v>1.000561165254472</v>
+        <v>1.077411661916667</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.021469815373089</v>
+        <v>6.3226564</v>
       </c>
       <c r="D17">
-        <v>0.9950721127775199</v>
+        <v>0.5474723</v>
       </c>
       <c r="E17">
-        <v>0.9853734091398345</v>
+        <v>6.3226564</v>
       </c>
       <c r="F17">
-        <v>1.021469815373089</v>
+        <v>0.052953469</v>
       </c>
       <c r="G17">
-        <v>1.006918061657909</v>
+        <v>0.89094831</v>
       </c>
       <c r="H17">
-        <v>0.9971536828588046</v>
+        <v>2.6650549</v>
       </c>
       <c r="I17">
-        <v>0.9968616982511735</v>
+        <v>0.052953469</v>
       </c>
       <c r="J17">
-        <v>0.9950721127775199</v>
+        <v>0.51817232</v>
       </c>
       <c r="K17">
-        <v>1.021469815373089</v>
+        <v>0.052953469</v>
       </c>
       <c r="L17">
-        <v>0.9853734091398345</v>
+        <v>0.5474723</v>
       </c>
       <c r="M17">
-        <v>0.9902227609586772</v>
+        <v>3.43506435</v>
       </c>
       <c r="N17">
-        <v>0.9902227609586772</v>
+        <v>3.43506435</v>
       </c>
       <c r="O17">
-        <v>0.9925330682587198</v>
+        <v>2.58702567</v>
       </c>
       <c r="P17">
-        <v>1.000638445763481</v>
+        <v>2.307694056333333</v>
       </c>
       <c r="Q17">
-        <v>1.000638445763481</v>
+        <v>2.307694056333333</v>
       </c>
       <c r="R17">
-        <v>1.005846288165883</v>
+        <v>1.7440089095</v>
       </c>
       <c r="S17">
-        <v>1.005846288165883</v>
+        <v>1.7440089095</v>
       </c>
       <c r="T17">
-        <v>1.000474796676388</v>
+        <v>1.832876283166667</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.00392947744879</v>
+        <v>0.001304922223424658</v>
       </c>
       <c r="D18">
-        <v>0.9929689349309255</v>
+        <v>1.349959227219178</v>
       </c>
       <c r="E18">
-        <v>1.031089238639817</v>
+        <v>0.001304922223424658</v>
       </c>
       <c r="F18">
-        <v>1.00392947744879</v>
+        <v>2.782427490164383</v>
       </c>
       <c r="G18">
-        <v>1.01035984235982</v>
+        <v>0.1132223844931507</v>
       </c>
       <c r="H18">
-        <v>0.9868862291682504</v>
+        <v>0.2930950214219178</v>
       </c>
       <c r="I18">
-        <v>1.008750642560268</v>
+        <v>2.782427490164383</v>
       </c>
       <c r="J18">
-        <v>0.9929689349309255</v>
+        <v>1.490606763150685</v>
       </c>
       <c r="K18">
-        <v>1.00392947744879</v>
+        <v>2.782427490164383</v>
       </c>
       <c r="L18">
-        <v>1.031089238639817</v>
+        <v>1.349959227219178</v>
       </c>
       <c r="M18">
-        <v>1.012029086785371</v>
+        <v>0.6756320747213014</v>
       </c>
       <c r="N18">
-        <v>1.012029086785371</v>
+        <v>0.6756320747213014</v>
       </c>
       <c r="O18">
-        <v>1.003648134246331</v>
+        <v>0.4881621779785845</v>
       </c>
       <c r="P18">
-        <v>1.009329217006511</v>
+        <v>1.377897213202328</v>
       </c>
       <c r="Q18">
-        <v>1.009329217006511</v>
+        <v>1.377897213202328</v>
       </c>
       <c r="R18">
-        <v>1.007979282117081</v>
+        <v>1.729029782442842</v>
       </c>
       <c r="S18">
-        <v>1.007979282117081</v>
+        <v>1.729029782442842</v>
       </c>
       <c r="T18">
-        <v>1.005664060851312</v>
+        <v>1.00510263477879</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.890923512350164</v>
+        <v>1.715041252566842</v>
       </c>
       <c r="D19">
-        <v>0.9692386334863589</v>
+        <v>1.225597809473684</v>
       </c>
       <c r="E19">
-        <v>1.106552288688772</v>
+        <v>1.715041252566842</v>
       </c>
       <c r="F19">
-        <v>0.890923512350164</v>
+        <v>0.8652447347105264</v>
       </c>
       <c r="G19">
-        <v>1.002329848046041</v>
+        <v>0.5502725599661052</v>
       </c>
       <c r="H19">
-        <v>0.9745991205876131</v>
+        <v>2.895641588147369</v>
       </c>
       <c r="I19">
-        <v>1.051791584055703</v>
+        <v>0.8652447347105264</v>
       </c>
       <c r="J19">
-        <v>0.9692386334863589</v>
+        <v>0.8394994531578948</v>
       </c>
       <c r="K19">
-        <v>0.890923512350164</v>
+        <v>0.8652447347105264</v>
       </c>
       <c r="L19">
-        <v>1.106552288688772</v>
+        <v>1.225597809473684</v>
       </c>
       <c r="M19">
-        <v>1.037895461087565</v>
+        <v>1.470319531020263</v>
       </c>
       <c r="N19">
-        <v>1.037895461087565</v>
+        <v>1.470319531020263</v>
       </c>
       <c r="O19">
-        <v>1.016796680920915</v>
+        <v>1.163637207335544</v>
       </c>
       <c r="P19">
-        <v>0.9889048115084317</v>
+        <v>1.268627932250351</v>
       </c>
       <c r="Q19">
-        <v>0.9889048115084317</v>
+        <v>1.268627932250351</v>
       </c>
       <c r="R19">
-        <v>0.9644094867188647</v>
+        <v>1.167782132865395</v>
       </c>
       <c r="S19">
-        <v>0.9644094867188647</v>
+        <v>1.167782132865395</v>
       </c>
       <c r="T19">
-        <v>0.9992391645357753</v>
+        <v>1.348549566337071</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.06081876347315789</v>
+      </c>
+      <c r="D20">
+        <v>0.964803806526316</v>
+      </c>
+      <c r="E20">
+        <v>0.06081876347315789</v>
+      </c>
+      <c r="F20">
+        <v>1.304694119921053</v>
+      </c>
+      <c r="G20">
+        <v>0.772116960432737</v>
+      </c>
+      <c r="H20">
+        <v>1.598563466323685</v>
+      </c>
+      <c r="I20">
+        <v>1.304694119921053</v>
+      </c>
+      <c r="J20">
+        <v>1.028328058947368</v>
+      </c>
+      <c r="K20">
+        <v>1.304694119921053</v>
+      </c>
+      <c r="L20">
+        <v>0.964803806526316</v>
+      </c>
+      <c r="M20">
+        <v>0.5128112849997369</v>
+      </c>
+      <c r="N20">
+        <v>0.5128112849997369</v>
+      </c>
+      <c r="O20">
+        <v>0.5992465101440704</v>
+      </c>
+      <c r="P20">
+        <v>0.7767722299735089</v>
+      </c>
+      <c r="Q20">
+        <v>0.7767722299735089</v>
+      </c>
+      <c r="R20">
+        <v>0.9087527024603949</v>
+      </c>
+      <c r="S20">
+        <v>0.9087527024603949</v>
+      </c>
+      <c r="T20">
+        <v>0.9548875292707194</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.185810061099715</v>
+      </c>
+      <c r="D21">
+        <v>0.6377965460857161</v>
+      </c>
+      <c r="E21">
+        <v>1.185810061099715</v>
+      </c>
+      <c r="F21">
+        <v>1.427136596211693</v>
+      </c>
+      <c r="G21">
+        <v>1.207130680221456</v>
+      </c>
+      <c r="H21">
+        <v>0.09327136695317681</v>
+      </c>
+      <c r="I21">
+        <v>1.427136596211693</v>
+      </c>
+      <c r="J21">
+        <v>0.9867270985990664</v>
+      </c>
+      <c r="K21">
+        <v>1.427136596211693</v>
+      </c>
+      <c r="L21">
+        <v>0.6377965460857161</v>
+      </c>
+      <c r="M21">
+        <v>0.9118033035927153</v>
+      </c>
+      <c r="N21">
+        <v>0.9118033035927153</v>
+      </c>
+      <c r="O21">
+        <v>1.010245762468962</v>
+      </c>
+      <c r="P21">
+        <v>1.083581067799041</v>
+      </c>
+      <c r="Q21">
+        <v>1.083581067799041</v>
+      </c>
+      <c r="R21">
+        <v>1.169469949902204</v>
+      </c>
+      <c r="S21">
+        <v>1.169469949902204</v>
+      </c>
+      <c r="T21">
+        <v>0.9229787248618037</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.057916784435557</v>
+      </c>
+      <c r="D22">
+        <v>1.149725554810864</v>
+      </c>
+      <c r="E22">
+        <v>1.057916784435557</v>
+      </c>
+      <c r="F22">
+        <v>0.6604641208295891</v>
+      </c>
+      <c r="G22">
+        <v>1.076653969790704</v>
+      </c>
+      <c r="H22">
+        <v>1.138874882531725</v>
+      </c>
+      <c r="I22">
+        <v>0.6604641208295891</v>
+      </c>
+      <c r="J22">
+        <v>0.9407419295904441</v>
+      </c>
+      <c r="K22">
+        <v>0.6604641208295891</v>
+      </c>
+      <c r="L22">
+        <v>1.149725554810864</v>
+      </c>
+      <c r="M22">
+        <v>1.103821169623211</v>
+      </c>
+      <c r="N22">
+        <v>1.103821169623211</v>
+      </c>
+      <c r="O22">
+        <v>1.094765436345708</v>
+      </c>
+      <c r="P22">
+        <v>0.9560354866920036</v>
+      </c>
+      <c r="Q22">
+        <v>0.9560354866920036</v>
+      </c>
+      <c r="R22">
+        <v>0.8821426452264</v>
+      </c>
+      <c r="S22">
+        <v>0.8821426452264</v>
+      </c>
+      <c r="T22">
+        <v>1.004062873664814</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.8486630064466159</v>
+      </c>
+      <c r="D23">
+        <v>0.669356081706832</v>
+      </c>
+      <c r="E23">
+        <v>0.8486630064466159</v>
+      </c>
+      <c r="F23">
+        <v>1.532267258639387</v>
+      </c>
+      <c r="G23">
+        <v>1.230359668113492</v>
+      </c>
+      <c r="H23">
+        <v>0.08048465139390691</v>
+      </c>
+      <c r="I23">
+        <v>1.532267258639387</v>
+      </c>
+      <c r="J23">
+        <v>0.9583033382359376</v>
+      </c>
+      <c r="K23">
+        <v>1.532267258639387</v>
+      </c>
+      <c r="L23">
+        <v>0.669356081706832</v>
+      </c>
+      <c r="M23">
+        <v>0.7590095440767239</v>
+      </c>
+      <c r="N23">
+        <v>0.7590095440767239</v>
+      </c>
+      <c r="O23">
+        <v>0.9161262520889801</v>
+      </c>
+      <c r="P23">
+        <v>1.016762115597611</v>
+      </c>
+      <c r="Q23">
+        <v>1.016762115597611</v>
+      </c>
+      <c r="R23">
+        <v>1.145638401358055</v>
+      </c>
+      <c r="S23">
+        <v>1.145638401358055</v>
+      </c>
+      <c r="T23">
+        <v>0.886572334089362</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.430676343334622</v>
+      </c>
+      <c r="D24">
+        <v>1.136867111548494</v>
+      </c>
+      <c r="E24">
+        <v>1.430676343334622</v>
+      </c>
+      <c r="F24">
+        <v>0.7370958989984403</v>
+      </c>
+      <c r="G24">
+        <v>0.9647252935279279</v>
+      </c>
+      <c r="H24">
+        <v>1.0699870435726</v>
+      </c>
+      <c r="I24">
+        <v>0.7370958989984403</v>
+      </c>
+      <c r="J24">
+        <v>0.9929843792938187</v>
+      </c>
+      <c r="K24">
+        <v>0.7370958989984403</v>
+      </c>
+      <c r="L24">
+        <v>1.136867111548494</v>
+      </c>
+      <c r="M24">
+        <v>1.283771727441558</v>
+      </c>
+      <c r="N24">
+        <v>1.283771727441558</v>
+      </c>
+      <c r="O24">
+        <v>1.177422916137015</v>
+      </c>
+      <c r="P24">
+        <v>1.101546451293852</v>
+      </c>
+      <c r="Q24">
+        <v>1.101546451293852</v>
+      </c>
+      <c r="R24">
+        <v>1.010433813219999</v>
+      </c>
+      <c r="S24">
+        <v>1.010433813219999</v>
+      </c>
+      <c r="T24">
+        <v>1.055389345045984</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.4791380852406496</v>
+      </c>
+      <c r="D25">
+        <v>0.6986063609290358</v>
+      </c>
+      <c r="E25">
+        <v>0.4791380852406496</v>
+      </c>
+      <c r="F25">
+        <v>1.594393200760102</v>
+      </c>
+      <c r="G25">
+        <v>1.297912604269346</v>
+      </c>
+      <c r="H25">
+        <v>0.0701207328903507</v>
+      </c>
+      <c r="I25">
+        <v>1.594393200760102</v>
+      </c>
+      <c r="J25">
+        <v>0.9452665786330776</v>
+      </c>
+      <c r="K25">
+        <v>1.594393200760102</v>
+      </c>
+      <c r="L25">
+        <v>0.6986063609290358</v>
+      </c>
+      <c r="M25">
+        <v>0.5888722230848427</v>
+      </c>
+      <c r="N25">
+        <v>0.5888722230848427</v>
+      </c>
+      <c r="O25">
+        <v>0.8252190168130106</v>
+      </c>
+      <c r="P25">
+        <v>0.924045882309929</v>
+      </c>
+      <c r="Q25">
+        <v>0.9240458823099291</v>
+      </c>
+      <c r="R25">
+        <v>1.091632711922472</v>
+      </c>
+      <c r="S25">
+        <v>1.091632711922472</v>
+      </c>
+      <c r="T25">
+        <v>0.847572927120427</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.862991747741879</v>
+      </c>
+      <c r="D26">
+        <v>1.121573505332334</v>
+      </c>
+      <c r="E26">
+        <v>1.862991747741879</v>
+      </c>
+      <c r="F26">
+        <v>0.7955784075114233</v>
+      </c>
+      <c r="G26">
+        <v>0.8607691206596199</v>
+      </c>
+      <c r="H26">
+        <v>0.9934246742941145</v>
+      </c>
+      <c r="I26">
+        <v>0.7955784075114233</v>
+      </c>
+      <c r="J26">
+        <v>1.02853683335039</v>
+      </c>
+      <c r="K26">
+        <v>0.7955784075114233</v>
+      </c>
+      <c r="L26">
+        <v>1.121573505332334</v>
+      </c>
+      <c r="M26">
+        <v>1.492282626537107</v>
+      </c>
+      <c r="N26">
+        <v>1.492282626537107</v>
+      </c>
+      <c r="O26">
+        <v>1.281778124577944</v>
+      </c>
+      <c r="P26">
+        <v>1.260047886861879</v>
+      </c>
+      <c r="Q26">
+        <v>1.260047886861879</v>
+      </c>
+      <c r="R26">
+        <v>1.143930517024265</v>
+      </c>
+      <c r="S26">
+        <v>1.143930517024265</v>
+      </c>
+      <c r="T26">
+        <v>1.110479048148293</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.3193098787262178</v>
+      </c>
+      <c r="D27">
+        <v>0.8718084763750074</v>
+      </c>
+      <c r="E27">
+        <v>0.3193098787262178</v>
+      </c>
+      <c r="F27">
+        <v>1.088691044207615</v>
+      </c>
+      <c r="G27">
+        <v>1.041926674804902</v>
+      </c>
+      <c r="H27">
+        <v>1.696423257412522</v>
+      </c>
+      <c r="I27">
+        <v>1.088691044207615</v>
+      </c>
+      <c r="J27">
+        <v>0.9104736369775364</v>
+      </c>
+      <c r="K27">
+        <v>1.088691044207615</v>
+      </c>
+      <c r="L27">
+        <v>0.8718084763750074</v>
+      </c>
+      <c r="M27">
+        <v>0.5955591775506126</v>
+      </c>
+      <c r="N27">
+        <v>0.5955591775506126</v>
+      </c>
+      <c r="O27">
+        <v>0.7443483433020424</v>
+      </c>
+      <c r="P27">
+        <v>0.7599364664362801</v>
+      </c>
+      <c r="Q27">
+        <v>0.7599364664362801</v>
+      </c>
+      <c r="R27">
+        <v>0.8421251108791139</v>
+      </c>
+      <c r="S27">
+        <v>0.8421251108791139</v>
+      </c>
+      <c r="T27">
+        <v>0.9881054947506334</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.675443622296288</v>
+      </c>
+      <c r="D28">
+        <v>1.18567542743736</v>
+      </c>
+      <c r="E28">
+        <v>1.675443622296288</v>
+      </c>
+      <c r="F28">
+        <v>0.5457036645790778</v>
+      </c>
+      <c r="G28">
+        <v>0.6375068461390535</v>
+      </c>
+      <c r="H28">
+        <v>0.3843408360140807</v>
+      </c>
+      <c r="I28">
+        <v>0.5457036645790778</v>
+      </c>
+      <c r="J28">
+        <v>1.336036590370925</v>
+      </c>
+      <c r="K28">
+        <v>0.5457036645790778</v>
+      </c>
+      <c r="L28">
+        <v>1.18567542743736</v>
+      </c>
+      <c r="M28">
+        <v>1.430559524866824</v>
+      </c>
+      <c r="N28">
+        <v>1.430559524866824</v>
+      </c>
+      <c r="O28">
+        <v>1.166208631957567</v>
+      </c>
+      <c r="P28">
+        <v>1.135607571437575</v>
+      </c>
+      <c r="Q28">
+        <v>1.135607571437575</v>
+      </c>
+      <c r="R28">
+        <v>0.9881315947229508</v>
+      </c>
+      <c r="S28">
+        <v>0.9881315947229508</v>
+      </c>
+      <c r="T28">
+        <v>0.9607844978061307</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>3.717338547866604</v>
+      </c>
+      <c r="D29">
+        <v>0.5068263354289442</v>
+      </c>
+      <c r="E29">
+        <v>3.717338547866604</v>
+      </c>
+      <c r="F29">
+        <v>0.7227914315722015</v>
+      </c>
+      <c r="G29">
+        <v>0.8493906747428848</v>
+      </c>
+      <c r="H29">
+        <v>0.4640247814059301</v>
+      </c>
+      <c r="I29">
+        <v>0.7227914315722015</v>
+      </c>
+      <c r="J29">
+        <v>1.032458020460697</v>
+      </c>
+      <c r="K29">
+        <v>0.7227914315722015</v>
+      </c>
+      <c r="L29">
+        <v>0.5068263354289442</v>
+      </c>
+      <c r="M29">
+        <v>2.112082441647774</v>
+      </c>
+      <c r="N29">
+        <v>2.112082441647774</v>
+      </c>
+      <c r="O29">
+        <v>1.691185186012811</v>
+      </c>
+      <c r="P29">
+        <v>1.64898543828925</v>
+      </c>
+      <c r="Q29">
+        <v>1.64898543828925</v>
+      </c>
+      <c r="R29">
+        <v>1.417436936609988</v>
+      </c>
+      <c r="S29">
+        <v>1.417436936609988</v>
+      </c>
+      <c r="T29">
+        <v>1.215471631912877</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Gamma1F-HW10.xlsx
+++ b/JupyterNotebooks/AvgHW/Gamma1F-HW10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.8787266687408447</v>
+        <v>0.7911597555622248</v>
       </c>
       <c r="D4">
-        <v>1.162725827127974</v>
+        <v>1.079560715337639</v>
       </c>
       <c r="E4">
-        <v>0.8787266687408447</v>
+        <v>0.7911597555622248</v>
       </c>
       <c r="F4">
-        <v>0.9164324211658943</v>
+        <v>0.8821854673611824</v>
       </c>
       <c r="G4">
-        <v>0.8958610448444869</v>
+        <v>0.822194679689621</v>
       </c>
       <c r="H4">
-        <v>1.127416463379675</v>
+        <v>1.893978264176763</v>
       </c>
       <c r="I4">
-        <v>0.9164324211658943</v>
+        <v>0.8821854673611824</v>
       </c>
       <c r="J4">
-        <v>1.056180497192631</v>
+        <v>1.005897971135216</v>
       </c>
       <c r="K4">
-        <v>0.9164324211658943</v>
+        <v>0.8821854673611824</v>
       </c>
       <c r="L4">
-        <v>1.162725827127974</v>
+        <v>1.079560715337639</v>
       </c>
       <c r="M4">
-        <v>1.020726247934409</v>
+        <v>0.9353602354499322</v>
       </c>
       <c r="N4">
-        <v>1.020726247934409</v>
+        <v>0.9353602354499322</v>
       </c>
       <c r="O4">
-        <v>0.9791045135711017</v>
+        <v>0.8976383835298285</v>
       </c>
       <c r="P4">
-        <v>0.985961639011571</v>
+        <v>0.9176353127536823</v>
       </c>
       <c r="Q4">
-        <v>0.985961639011571</v>
+        <v>0.9176353127536823</v>
       </c>
       <c r="R4">
-        <v>0.9685793345501519</v>
+        <v>0.9087728514055573</v>
       </c>
       <c r="S4">
-        <v>0.9685793345501519</v>
+        <v>0.9087728514055573</v>
       </c>
       <c r="T4">
-        <v>1.006223820408584</v>
+        <v>1.079162808877108</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.7411408149377428</v>
+        <v>0.06743189111679164</v>
       </c>
       <c r="D5">
-        <v>1.073986001285301</v>
+        <v>0.9923453812277827</v>
       </c>
       <c r="E5">
-        <v>0.7411408149377428</v>
+        <v>0.06743189111679164</v>
       </c>
       <c r="F5">
-        <v>0.9233306149582157</v>
+        <v>1.25278090804384</v>
       </c>
       <c r="G5">
-        <v>0.7828375498171726</v>
+        <v>0.852429685711081</v>
       </c>
       <c r="H5">
-        <v>2.081841208986201</v>
+        <v>0.8935749976357277</v>
       </c>
       <c r="I5">
-        <v>0.9233306149582157</v>
+        <v>1.25278090804384</v>
       </c>
       <c r="J5">
-        <v>1.002171309971182</v>
+        <v>1.086541612729487</v>
       </c>
       <c r="K5">
-        <v>0.9233306149582157</v>
+        <v>1.25278090804384</v>
       </c>
       <c r="L5">
-        <v>1.073986001285301</v>
+        <v>0.9923453812277827</v>
       </c>
       <c r="M5">
-        <v>0.9075634081115217</v>
+        <v>0.5298886361722872</v>
       </c>
       <c r="N5">
-        <v>0.9075634081115217</v>
+        <v>0.5298886361722872</v>
       </c>
       <c r="O5">
-        <v>0.8659881220134054</v>
+        <v>0.6374023193518852</v>
       </c>
       <c r="P5">
-        <v>0.9128191437270864</v>
+        <v>0.7708527267961381</v>
       </c>
       <c r="Q5">
-        <v>0.9128191437270864</v>
+        <v>0.7708527267961381</v>
       </c>
       <c r="R5">
-        <v>0.9154470115348687</v>
+        <v>0.8913347721080637</v>
       </c>
       <c r="S5">
-        <v>0.9154470115348687</v>
+        <v>0.8913347721080637</v>
       </c>
       <c r="T5">
-        <v>1.100884583325969</v>
+        <v>0.8575174127441184</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.3949200973915748</v>
+        <v>0.8787266687408447</v>
       </c>
       <c r="D6">
-        <v>0.9498653083769131</v>
+        <v>1.162725827127974</v>
       </c>
       <c r="E6">
-        <v>0.3949200973915748</v>
+        <v>0.8787266687408447</v>
       </c>
       <c r="F6">
-        <v>0.4509171433483361</v>
+        <v>0.9164324211658943</v>
       </c>
       <c r="G6">
-        <v>0.4104272748279622</v>
+        <v>0.8958610448444869</v>
       </c>
       <c r="H6">
-        <v>6.674062294677318</v>
+        <v>1.127416463379675</v>
       </c>
       <c r="I6">
-        <v>0.4509171433483361</v>
+        <v>0.9164324211658943</v>
       </c>
       <c r="J6">
-        <v>0.6890002015087067</v>
+        <v>1.056180497192631</v>
       </c>
       <c r="K6">
-        <v>0.4509171433483361</v>
+        <v>0.9164324211658943</v>
       </c>
       <c r="L6">
-        <v>0.9498653083769131</v>
+        <v>1.162725827127974</v>
       </c>
       <c r="M6">
-        <v>0.6723927028842439</v>
+        <v>1.020726247934409</v>
       </c>
       <c r="N6">
-        <v>0.6723927028842439</v>
+        <v>1.020726247934409</v>
       </c>
       <c r="O6">
-        <v>0.58507089353215</v>
+        <v>0.9791045135711017</v>
       </c>
       <c r="P6">
-        <v>0.5985675163722747</v>
+        <v>0.985961639011571</v>
       </c>
       <c r="Q6">
-        <v>0.5985675163722747</v>
+        <v>0.985961639011571</v>
       </c>
       <c r="R6">
-        <v>0.56165492311629</v>
+        <v>0.9685793345501519</v>
       </c>
       <c r="S6">
-        <v>0.56165492311629</v>
+        <v>0.9685793345501519</v>
       </c>
       <c r="T6">
-        <v>1.594865386688469</v>
+        <v>1.006223820408584</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.952067099555559</v>
+        <v>0.7411408149377428</v>
       </c>
       <c r="D7">
-        <v>1.015969525539608</v>
+        <v>1.073986001285301</v>
       </c>
       <c r="E7">
-        <v>0.952067099555559</v>
+        <v>0.7411408149377428</v>
       </c>
       <c r="F7">
-        <v>1.072519008767067</v>
+        <v>0.9233306149582157</v>
       </c>
       <c r="G7">
-        <v>0.9600620902120176</v>
+        <v>0.7828375498171726</v>
       </c>
       <c r="H7">
-        <v>0.9720715001595985</v>
+        <v>2.081841208986201</v>
       </c>
       <c r="I7">
-        <v>1.072519008767067</v>
+        <v>0.9233306149582157</v>
       </c>
       <c r="J7">
-        <v>1.02329979377848</v>
+        <v>1.002171309971182</v>
       </c>
       <c r="K7">
-        <v>1.072519008767067</v>
+        <v>0.9233306149582157</v>
       </c>
       <c r="L7">
-        <v>1.015969525539608</v>
+        <v>1.073986001285301</v>
       </c>
       <c r="M7">
-        <v>0.9840183125475837</v>
+        <v>0.9075634081115217</v>
       </c>
       <c r="N7">
-        <v>0.9840183125475837</v>
+        <v>0.9075634081115217</v>
       </c>
       <c r="O7">
-        <v>0.9760329051023949</v>
+        <v>0.8659881220134054</v>
       </c>
       <c r="P7">
-        <v>1.013518544620745</v>
+        <v>0.9128191437270864</v>
       </c>
       <c r="Q7">
-        <v>1.013518544620745</v>
+        <v>0.9128191437270864</v>
       </c>
       <c r="R7">
-        <v>1.028268660657325</v>
+        <v>0.9154470115348687</v>
       </c>
       <c r="S7">
-        <v>1.028268660657325</v>
+        <v>0.9154470115348687</v>
       </c>
       <c r="T7">
-        <v>0.999331503002055</v>
+        <v>1.100884583325969</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9950721127775189</v>
+        <v>0.3949200973915748</v>
       </c>
       <c r="D8">
-        <v>0.9853734091398337</v>
+        <v>0.9498653083769131</v>
       </c>
       <c r="E8">
-        <v>0.9950721127775189</v>
+        <v>0.3949200973915748</v>
       </c>
       <c r="F8">
-        <v>1.021469815373089</v>
+        <v>0.4509171433483361</v>
       </c>
       <c r="G8">
-        <v>0.9971536828588041</v>
+        <v>0.4104272748279622</v>
       </c>
       <c r="H8">
-        <v>1.006918061657909</v>
+        <v>6.674062294677318</v>
       </c>
       <c r="I8">
-        <v>1.021469815373089</v>
+        <v>0.4509171433483361</v>
       </c>
       <c r="J8">
-        <v>0.996861698251174</v>
+        <v>0.6890002015087067</v>
       </c>
       <c r="K8">
-        <v>1.021469815373089</v>
+        <v>0.4509171433483361</v>
       </c>
       <c r="L8">
-        <v>0.9853734091398337</v>
+        <v>0.9498653083769131</v>
       </c>
       <c r="M8">
-        <v>0.9902227609586763</v>
+        <v>0.6723927028842439</v>
       </c>
       <c r="N8">
-        <v>0.9902227609586763</v>
+        <v>0.6723927028842439</v>
       </c>
       <c r="O8">
-        <v>0.9925330682587189</v>
+        <v>0.58507089353215</v>
       </c>
       <c r="P8">
-        <v>1.00063844576348</v>
+        <v>0.5985675163722747</v>
       </c>
       <c r="Q8">
-        <v>1.00063844576348</v>
+        <v>0.5985675163722747</v>
       </c>
       <c r="R8">
-        <v>1.005846288165883</v>
+        <v>0.56165492311629</v>
       </c>
       <c r="S8">
-        <v>1.005846288165883</v>
+        <v>0.56165492311629</v>
       </c>
       <c r="T8">
-        <v>1.000474796676388</v>
+        <v>1.594865386688469</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9215080898239538</v>
+        <v>0.952067099555559</v>
       </c>
       <c r="D9">
-        <v>1.030523892603836</v>
+        <v>1.015969525539608</v>
       </c>
       <c r="E9">
-        <v>0.9215080898239538</v>
+        <v>0.952067099555559</v>
       </c>
       <c r="F9">
-        <v>1.142582386995078</v>
+        <v>1.072519008767067</v>
       </c>
       <c r="G9">
-        <v>0.9242174231966434</v>
+        <v>0.9600620902120176</v>
       </c>
       <c r="H9">
-        <v>0.9586446249200699</v>
+        <v>0.9720715001595985</v>
       </c>
       <c r="I9">
-        <v>1.142582386995078</v>
+        <v>1.072519008767067</v>
       </c>
       <c r="J9">
-        <v>1.039788421852951</v>
+        <v>1.02329979377848</v>
       </c>
       <c r="K9">
-        <v>1.142582386995078</v>
+        <v>1.072519008767067</v>
       </c>
       <c r="L9">
-        <v>1.030523892603836</v>
+        <v>1.015969525539608</v>
       </c>
       <c r="M9">
-        <v>0.9760159912138952</v>
+        <v>0.9840183125475837</v>
       </c>
       <c r="N9">
-        <v>0.9760159912138952</v>
+        <v>0.9840183125475837</v>
       </c>
       <c r="O9">
-        <v>0.9587498018748112</v>
+        <v>0.9760329051023949</v>
       </c>
       <c r="P9">
-        <v>1.031538123140956</v>
+        <v>1.013518544620745</v>
       </c>
       <c r="Q9">
-        <v>1.031538123140956</v>
+        <v>1.013518544620745</v>
       </c>
       <c r="R9">
-        <v>1.059299189104487</v>
+        <v>1.028268660657325</v>
       </c>
       <c r="S9">
-        <v>1.059299189104487</v>
+        <v>1.028268660657325</v>
       </c>
       <c r="T9">
-        <v>1.002877473232089</v>
+        <v>0.999331503002055</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.44015206085804</v>
+        <v>0.9950721127775189</v>
       </c>
       <c r="D10">
-        <v>0.9416649267566171</v>
+        <v>0.9853734091398337</v>
       </c>
       <c r="E10">
-        <v>0.44015206085804</v>
+        <v>0.9950721127775189</v>
       </c>
       <c r="F10">
-        <v>0.4323778379548982</v>
+        <v>1.021469815373089</v>
       </c>
       <c r="G10">
-        <v>0.3931400384999672</v>
+        <v>0.9971536828588041</v>
       </c>
       <c r="H10">
-        <v>6.803117675845459</v>
+        <v>1.006918061657909</v>
       </c>
       <c r="I10">
-        <v>0.4323778379548982</v>
+        <v>1.021469815373089</v>
       </c>
       <c r="J10">
-        <v>0.6789229430157604</v>
+        <v>0.996861698251174</v>
       </c>
       <c r="K10">
-        <v>0.4323778379548982</v>
+        <v>1.021469815373089</v>
       </c>
       <c r="L10">
-        <v>0.9416649267566171</v>
+        <v>0.9853734091398337</v>
       </c>
       <c r="M10">
-        <v>0.6909084938073285</v>
+        <v>0.9902227609586763</v>
       </c>
       <c r="N10">
-        <v>0.6909084938073285</v>
+        <v>0.9902227609586763</v>
       </c>
       <c r="O10">
-        <v>0.5916523420382082</v>
+        <v>0.9925330682587189</v>
       </c>
       <c r="P10">
-        <v>0.6047316085231851</v>
+        <v>1.00063844576348</v>
       </c>
       <c r="Q10">
-        <v>0.6047316085231851</v>
+        <v>1.00063844576348</v>
       </c>
       <c r="R10">
-        <v>0.5616431658811134</v>
+        <v>1.005846288165883</v>
       </c>
       <c r="S10">
-        <v>0.5616431658811134</v>
+        <v>1.005846288165883</v>
       </c>
       <c r="T10">
-        <v>1.61489591382179</v>
+        <v>1.000474796676388</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.7304773233407644</v>
+        <v>0.9215080898239538</v>
       </c>
       <c r="D11">
-        <v>1.148585574578476</v>
+        <v>1.030523892603836</v>
       </c>
       <c r="E11">
-        <v>0.7304773233407644</v>
+        <v>0.9215080898239538</v>
       </c>
       <c r="F11">
-        <v>1.019490242263407</v>
+        <v>1.142582386995078</v>
       </c>
       <c r="G11">
-        <v>0.8995688418055298</v>
+        <v>0.9242174231966434</v>
       </c>
       <c r="H11">
-        <v>0.852936296410452</v>
+        <v>0.9586446249200699</v>
       </c>
       <c r="I11">
-        <v>1.019490242263407</v>
+        <v>1.142582386995078</v>
       </c>
       <c r="J11">
-        <v>1.095436250727557</v>
+        <v>1.039788421852951</v>
       </c>
       <c r="K11">
-        <v>1.019490242263407</v>
+        <v>1.142582386995078</v>
       </c>
       <c r="L11">
-        <v>1.148585574578476</v>
+        <v>1.030523892603836</v>
       </c>
       <c r="M11">
-        <v>0.9395314489596203</v>
+        <v>0.9760159912138952</v>
       </c>
       <c r="N11">
-        <v>0.9395314489596203</v>
+        <v>0.9760159912138952</v>
       </c>
       <c r="O11">
-        <v>0.9262105799082567</v>
+        <v>0.9587498018748112</v>
       </c>
       <c r="P11">
-        <v>0.9661843800608825</v>
+        <v>1.031538123140956</v>
       </c>
       <c r="Q11">
-        <v>0.9661843800608825</v>
+        <v>1.031538123140956</v>
       </c>
       <c r="R11">
-        <v>0.9795108456115136</v>
+        <v>1.059299189104487</v>
       </c>
       <c r="S11">
-        <v>0.9795108456115136</v>
+        <v>1.059299189104487</v>
       </c>
       <c r="T11">
-        <v>0.9577490881876978</v>
+        <v>1.002877473232089</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9054659934401683</v>
+        <v>0.44015206085804</v>
       </c>
       <c r="D12">
-        <v>1.067145907621052</v>
+        <v>0.9416649267566171</v>
       </c>
       <c r="E12">
-        <v>0.9054659934401683</v>
+        <v>0.44015206085804</v>
       </c>
       <c r="F12">
-        <v>0.7860755035168433</v>
+        <v>0.4323778379548982</v>
       </c>
       <c r="G12">
-        <v>0.7738804762297209</v>
+        <v>0.3931400384999672</v>
       </c>
       <c r="H12">
-        <v>2.454075536128577</v>
+        <v>6.803117675845459</v>
       </c>
       <c r="I12">
-        <v>0.7860755035168433</v>
+        <v>0.4323778379548982</v>
       </c>
       <c r="J12">
-        <v>0.9547267008526316</v>
+        <v>0.6789229430157604</v>
       </c>
       <c r="K12">
-        <v>0.7860755035168433</v>
+        <v>0.4323778379548982</v>
       </c>
       <c r="L12">
-        <v>1.067145907621052</v>
+        <v>0.9416649267566171</v>
       </c>
       <c r="M12">
-        <v>0.9863059505306101</v>
+        <v>0.6909084938073285</v>
       </c>
       <c r="N12">
-        <v>0.9863059505306101</v>
+        <v>0.6909084938073285</v>
       </c>
       <c r="O12">
-        <v>0.9154974590969803</v>
+        <v>0.5916523420382082</v>
       </c>
       <c r="P12">
-        <v>0.9195624681926878</v>
+        <v>0.6047316085231851</v>
       </c>
       <c r="Q12">
-        <v>0.9195624681926878</v>
+        <v>0.6047316085231851</v>
       </c>
       <c r="R12">
-        <v>0.8861907270237267</v>
+        <v>0.5616431658811134</v>
       </c>
       <c r="S12">
-        <v>0.8861907270237267</v>
+        <v>0.5616431658811134</v>
       </c>
       <c r="T12">
-        <v>1.156895019631499</v>
+        <v>1.61489591382179</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.473008905048232</v>
+        <v>0.7304773233407644</v>
       </c>
       <c r="D13">
-        <v>0.8802694588574312</v>
+        <v>1.148585574578476</v>
       </c>
       <c r="E13">
-        <v>1.473008905048232</v>
+        <v>0.7304773233407644</v>
       </c>
       <c r="F13">
-        <v>1.001050170503245</v>
+        <v>1.019490242263407</v>
       </c>
       <c r="G13">
-        <v>1.119779481671348</v>
+        <v>0.8995688418055298</v>
       </c>
       <c r="H13">
-        <v>0.7007226765619768</v>
+        <v>0.852936296410452</v>
       </c>
       <c r="I13">
-        <v>1.001050170503245</v>
+        <v>1.019490242263407</v>
       </c>
       <c r="J13">
-        <v>0.938757004419024</v>
+        <v>1.095436250727557</v>
       </c>
       <c r="K13">
-        <v>1.001050170503245</v>
+        <v>1.019490242263407</v>
       </c>
       <c r="L13">
-        <v>0.8802694588574312</v>
+        <v>1.148585574578476</v>
       </c>
       <c r="M13">
-        <v>1.176639181952831</v>
+        <v>0.9395314489596203</v>
       </c>
       <c r="N13">
-        <v>1.176639181952831</v>
+        <v>0.9395314489596203</v>
       </c>
       <c r="O13">
-        <v>1.15768594852567</v>
+        <v>0.9262105799082567</v>
       </c>
       <c r="P13">
-        <v>1.118109511469636</v>
+        <v>0.9661843800608825</v>
       </c>
       <c r="Q13">
-        <v>1.118109511469636</v>
+        <v>0.9661843800608825</v>
       </c>
       <c r="R13">
-        <v>1.088844676228038</v>
+        <v>0.9795108456115136</v>
       </c>
       <c r="S13">
-        <v>1.088844676228038</v>
+        <v>0.9795108456115136</v>
       </c>
       <c r="T13">
-        <v>1.018931282843543</v>
+        <v>0.9577490881876978</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>-0.003255679799999996</v>
+        <v>0.9054659934401683</v>
       </c>
       <c r="D14">
-        <v>0.8252917000000006</v>
+        <v>1.067145907621052</v>
       </c>
       <c r="E14">
-        <v>-0.003255679799999996</v>
+        <v>0.9054659934401683</v>
       </c>
       <c r="F14">
-        <v>0.007481255500000003</v>
+        <v>0.7860755035168433</v>
       </c>
       <c r="G14">
-        <v>-0.003116856899999998</v>
+        <v>0.7738804762297209</v>
       </c>
       <c r="H14">
-        <v>11.47787300000001</v>
+        <v>2.454075536128577</v>
       </c>
       <c r="I14">
-        <v>0.007481255500000003</v>
+        <v>0.7860755035168433</v>
       </c>
       <c r="J14">
-        <v>0.3721673800000003</v>
+        <v>0.9547267008526316</v>
       </c>
       <c r="K14">
-        <v>0.007481255500000003</v>
+        <v>0.7860755035168433</v>
       </c>
       <c r="L14">
-        <v>0.8252917000000006</v>
+        <v>1.067145907621052</v>
       </c>
       <c r="M14">
-        <v>0.4110180101000003</v>
+        <v>0.9863059505306101</v>
       </c>
       <c r="N14">
-        <v>0.4110180101000003</v>
+        <v>0.9863059505306101</v>
       </c>
       <c r="O14">
-        <v>0.2729730544333336</v>
+        <v>0.9154974590969803</v>
       </c>
       <c r="P14">
-        <v>0.2765057585666669</v>
+        <v>0.9195624681926878</v>
       </c>
       <c r="Q14">
-        <v>0.2765057585666669</v>
+        <v>0.9195624681926878</v>
       </c>
       <c r="R14">
-        <v>0.2092496328000002</v>
+        <v>0.8861907270237267</v>
       </c>
       <c r="S14">
-        <v>0.2092496328000002</v>
+        <v>0.8861907270237267</v>
       </c>
       <c r="T14">
-        <v>2.112740133133336</v>
+        <v>1.156895019631499</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.0006486686500000001</v>
+        <v>1.473008905048232</v>
       </c>
       <c r="D15">
-        <v>0.026860481</v>
+        <v>0.8802694588574312</v>
       </c>
       <c r="E15">
-        <v>0.0006486686500000001</v>
+        <v>1.473008905048232</v>
       </c>
       <c r="F15">
-        <v>7.6546011</v>
+        <v>1.001050170503245</v>
       </c>
       <c r="G15">
-        <v>0.05715137000000001</v>
+        <v>1.119779481671348</v>
       </c>
       <c r="H15">
-        <v>0.0074812554</v>
+        <v>0.7007226765619768</v>
       </c>
       <c r="I15">
-        <v>7.6546011</v>
+        <v>1.001050170503245</v>
       </c>
       <c r="J15">
-        <v>0.60377661</v>
+        <v>0.938757004419024</v>
       </c>
       <c r="K15">
-        <v>7.6546011</v>
+        <v>1.001050170503245</v>
       </c>
       <c r="L15">
-        <v>0.026860481</v>
+        <v>0.8802694588574312</v>
       </c>
       <c r="M15">
-        <v>0.013754574825</v>
+        <v>1.176639181952831</v>
       </c>
       <c r="N15">
-        <v>0.013754574825</v>
+        <v>1.176639181952831</v>
       </c>
       <c r="O15">
-        <v>0.02822017321666667</v>
+        <v>1.15768594852567</v>
       </c>
       <c r="P15">
-        <v>2.56070341655</v>
+        <v>1.118109511469636</v>
       </c>
       <c r="Q15">
-        <v>2.56070341655</v>
+        <v>1.118109511469636</v>
       </c>
       <c r="R15">
-        <v>3.8341778374125</v>
+        <v>1.088844676228038</v>
       </c>
       <c r="S15">
-        <v>3.8341778374125</v>
+        <v>1.088844676228038</v>
       </c>
       <c r="T15">
-        <v>1.391753247508333</v>
+        <v>1.018931282843543</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.0040034715</v>
+        <v>-0.003255679799999996</v>
       </c>
       <c r="D16">
-        <v>3.8304134</v>
+        <v>0.8252917000000006</v>
       </c>
       <c r="E16">
-        <v>0.0040034715</v>
+        <v>-0.003255679799999996</v>
       </c>
       <c r="F16">
-        <v>0.026860309</v>
+        <v>0.007481255500000003</v>
       </c>
       <c r="G16">
-        <v>0.087096221</v>
+        <v>-0.003116856899999998</v>
       </c>
       <c r="H16">
-        <v>0.82520477</v>
+        <v>11.47787300000001</v>
       </c>
       <c r="I16">
-        <v>0.026860309</v>
+        <v>0.007481255500000003</v>
       </c>
       <c r="J16">
-        <v>1.6908918</v>
+        <v>0.3721673800000003</v>
       </c>
       <c r="K16">
-        <v>0.026860309</v>
+        <v>0.007481255500000003</v>
       </c>
       <c r="L16">
-        <v>3.8304134</v>
+        <v>0.8252917000000006</v>
       </c>
       <c r="M16">
-        <v>1.91720843575</v>
+        <v>0.4110180101000003</v>
       </c>
       <c r="N16">
-        <v>1.91720843575</v>
+        <v>0.4110180101000003</v>
       </c>
       <c r="O16">
-        <v>1.307171030833333</v>
+        <v>0.2729730544333336</v>
       </c>
       <c r="P16">
-        <v>1.2870923935</v>
+        <v>0.2765057585666669</v>
       </c>
       <c r="Q16">
-        <v>1.2870923935</v>
+        <v>0.2765057585666669</v>
       </c>
       <c r="R16">
-        <v>0.9720343723749999</v>
+        <v>0.2092496328000002</v>
       </c>
       <c r="S16">
-        <v>0.9720343723749999</v>
+        <v>0.2092496328000002</v>
       </c>
       <c r="T16">
-        <v>1.077411661916667</v>
+        <v>2.112740133133336</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>6.3226564</v>
+        <v>0.0006486686500000001</v>
       </c>
       <c r="D17">
-        <v>0.5474723</v>
+        <v>0.026860481</v>
       </c>
       <c r="E17">
-        <v>6.3226564</v>
+        <v>0.0006486686500000001</v>
       </c>
       <c r="F17">
-        <v>0.052953469</v>
+        <v>7.6546011</v>
       </c>
       <c r="G17">
-        <v>0.89094831</v>
+        <v>0.05715137000000001</v>
       </c>
       <c r="H17">
-        <v>2.6650549</v>
+        <v>0.0074812554</v>
       </c>
       <c r="I17">
-        <v>0.052953469</v>
+        <v>7.6546011</v>
       </c>
       <c r="J17">
-        <v>0.51817232</v>
+        <v>0.60377661</v>
       </c>
       <c r="K17">
-        <v>0.052953469</v>
+        <v>7.6546011</v>
       </c>
       <c r="L17">
-        <v>0.5474723</v>
+        <v>0.026860481</v>
       </c>
       <c r="M17">
-        <v>3.43506435</v>
+        <v>0.013754574825</v>
       </c>
       <c r="N17">
-        <v>3.43506435</v>
+        <v>0.013754574825</v>
       </c>
       <c r="O17">
-        <v>2.58702567</v>
+        <v>0.02822017321666667</v>
       </c>
       <c r="P17">
-        <v>2.307694056333333</v>
+        <v>2.56070341655</v>
       </c>
       <c r="Q17">
-        <v>2.307694056333333</v>
+        <v>2.56070341655</v>
       </c>
       <c r="R17">
-        <v>1.7440089095</v>
+        <v>3.8341778374125</v>
       </c>
       <c r="S17">
-        <v>1.7440089095</v>
+        <v>3.8341778374125</v>
       </c>
       <c r="T17">
-        <v>1.832876283166667</v>
+        <v>1.391753247508333</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.001304922223424658</v>
+        <v>0.0040034715</v>
       </c>
       <c r="D18">
-        <v>1.349959227219178</v>
+        <v>3.8304134</v>
       </c>
       <c r="E18">
-        <v>0.001304922223424658</v>
+        <v>0.0040034715</v>
       </c>
       <c r="F18">
-        <v>2.782427490164383</v>
+        <v>0.026860309</v>
       </c>
       <c r="G18">
-        <v>0.1132223844931507</v>
+        <v>0.087096221</v>
       </c>
       <c r="H18">
-        <v>0.2930950214219178</v>
+        <v>0.82520477</v>
       </c>
       <c r="I18">
-        <v>2.782427490164383</v>
+        <v>0.026860309</v>
       </c>
       <c r="J18">
-        <v>1.490606763150685</v>
+        <v>1.6908918</v>
       </c>
       <c r="K18">
-        <v>2.782427490164383</v>
+        <v>0.026860309</v>
       </c>
       <c r="L18">
-        <v>1.349959227219178</v>
+        <v>3.8304134</v>
       </c>
       <c r="M18">
-        <v>0.6756320747213014</v>
+        <v>1.91720843575</v>
       </c>
       <c r="N18">
-        <v>0.6756320747213014</v>
+        <v>1.91720843575</v>
       </c>
       <c r="O18">
-        <v>0.4881621779785845</v>
+        <v>1.307171030833333</v>
       </c>
       <c r="P18">
-        <v>1.377897213202328</v>
+        <v>1.2870923935</v>
       </c>
       <c r="Q18">
-        <v>1.377897213202328</v>
+        <v>1.2870923935</v>
       </c>
       <c r="R18">
-        <v>1.729029782442842</v>
+        <v>0.9720343723749999</v>
       </c>
       <c r="S18">
-        <v>1.729029782442842</v>
+        <v>0.9720343723749999</v>
       </c>
       <c r="T18">
-        <v>1.00510263477879</v>
+        <v>1.077411661916667</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.715041252566842</v>
+        <v>6.3226564</v>
       </c>
       <c r="D19">
-        <v>1.225597809473684</v>
+        <v>0.5474723</v>
       </c>
       <c r="E19">
-        <v>1.715041252566842</v>
+        <v>6.3226564</v>
       </c>
       <c r="F19">
-        <v>0.8652447347105264</v>
+        <v>0.052953469</v>
       </c>
       <c r="G19">
-        <v>0.5502725599661052</v>
+        <v>0.89094831</v>
       </c>
       <c r="H19">
-        <v>2.895641588147369</v>
+        <v>2.6650549</v>
       </c>
       <c r="I19">
-        <v>0.8652447347105264</v>
+        <v>0.052953469</v>
       </c>
       <c r="J19">
-        <v>0.8394994531578948</v>
+        <v>0.51817232</v>
       </c>
       <c r="K19">
-        <v>0.8652447347105264</v>
+        <v>0.052953469</v>
       </c>
       <c r="L19">
-        <v>1.225597809473684</v>
+        <v>0.5474723</v>
       </c>
       <c r="M19">
-        <v>1.470319531020263</v>
+        <v>3.43506435</v>
       </c>
       <c r="N19">
-        <v>1.470319531020263</v>
+        <v>3.43506435</v>
       </c>
       <c r="O19">
-        <v>1.163637207335544</v>
+        <v>2.58702567</v>
       </c>
       <c r="P19">
-        <v>1.268627932250351</v>
+        <v>2.307694056333333</v>
       </c>
       <c r="Q19">
-        <v>1.268627932250351</v>
+        <v>2.307694056333333</v>
       </c>
       <c r="R19">
-        <v>1.167782132865395</v>
+        <v>1.7440089095</v>
       </c>
       <c r="S19">
-        <v>1.167782132865395</v>
+        <v>1.7440089095</v>
       </c>
       <c r="T19">
-        <v>1.348549566337071</v>
+        <v>1.832876283166667</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.06081876347315789</v>
+        <v>0.001304922223424658</v>
       </c>
       <c r="D20">
-        <v>0.964803806526316</v>
+        <v>1.349959227219178</v>
       </c>
       <c r="E20">
-        <v>0.06081876347315789</v>
+        <v>0.001304922223424658</v>
       </c>
       <c r="F20">
-        <v>1.304694119921053</v>
+        <v>2.782427490164383</v>
       </c>
       <c r="G20">
-        <v>0.772116960432737</v>
+        <v>0.1132223844931507</v>
       </c>
       <c r="H20">
-        <v>1.598563466323685</v>
+        <v>0.2930950214219178</v>
       </c>
       <c r="I20">
-        <v>1.304694119921053</v>
+        <v>2.782427490164383</v>
       </c>
       <c r="J20">
-        <v>1.028328058947368</v>
+        <v>1.490606763150685</v>
       </c>
       <c r="K20">
-        <v>1.304694119921053</v>
+        <v>2.782427490164383</v>
       </c>
       <c r="L20">
-        <v>0.964803806526316</v>
+        <v>1.349959227219178</v>
       </c>
       <c r="M20">
-        <v>0.5128112849997369</v>
+        <v>0.6756320747213014</v>
       </c>
       <c r="N20">
-        <v>0.5128112849997369</v>
+        <v>0.6756320747213014</v>
       </c>
       <c r="O20">
-        <v>0.5992465101440704</v>
+        <v>0.4881621779785845</v>
       </c>
       <c r="P20">
-        <v>0.7767722299735089</v>
+        <v>1.377897213202328</v>
       </c>
       <c r="Q20">
-        <v>0.7767722299735089</v>
+        <v>1.377897213202328</v>
       </c>
       <c r="R20">
-        <v>0.9087527024603949</v>
+        <v>1.729029782442842</v>
       </c>
       <c r="S20">
-        <v>0.9087527024603949</v>
+        <v>1.729029782442842</v>
       </c>
       <c r="T20">
-        <v>0.9548875292707194</v>
+        <v>1.00510263477879</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.185810061099715</v>
+        <v>1.715041252566842</v>
       </c>
       <c r="D21">
-        <v>0.6377965460857161</v>
+        <v>1.225597809473684</v>
       </c>
       <c r="E21">
-        <v>1.185810061099715</v>
+        <v>1.715041252566842</v>
       </c>
       <c r="F21">
-        <v>1.427136596211693</v>
+        <v>0.8652447347105264</v>
       </c>
       <c r="G21">
-        <v>1.207130680221456</v>
+        <v>0.5502725599661052</v>
       </c>
       <c r="H21">
-        <v>0.09327136695317681</v>
+        <v>2.895641588147369</v>
       </c>
       <c r="I21">
-        <v>1.427136596211693</v>
+        <v>0.8652447347105264</v>
       </c>
       <c r="J21">
-        <v>0.9867270985990664</v>
+        <v>0.8394994531578948</v>
       </c>
       <c r="K21">
-        <v>1.427136596211693</v>
+        <v>0.8652447347105264</v>
       </c>
       <c r="L21">
-        <v>0.6377965460857161</v>
+        <v>1.225597809473684</v>
       </c>
       <c r="M21">
-        <v>0.9118033035927153</v>
+        <v>1.470319531020263</v>
       </c>
       <c r="N21">
-        <v>0.9118033035927153</v>
+        <v>1.470319531020263</v>
       </c>
       <c r="O21">
-        <v>1.010245762468962</v>
+        <v>1.163637207335544</v>
       </c>
       <c r="P21">
-        <v>1.083581067799041</v>
+        <v>1.268627932250351</v>
       </c>
       <c r="Q21">
-        <v>1.083581067799041</v>
+        <v>1.268627932250351</v>
       </c>
       <c r="R21">
-        <v>1.169469949902204</v>
+        <v>1.167782132865395</v>
       </c>
       <c r="S21">
-        <v>1.169469949902204</v>
+        <v>1.167782132865395</v>
       </c>
       <c r="T21">
-        <v>0.9229787248618037</v>
+        <v>1.348549566337071</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.057916784435557</v>
+        <v>0.06081876347315789</v>
       </c>
       <c r="D22">
-        <v>1.149725554810864</v>
+        <v>0.964803806526316</v>
       </c>
       <c r="E22">
-        <v>1.057916784435557</v>
+        <v>0.06081876347315789</v>
       </c>
       <c r="F22">
-        <v>0.6604641208295891</v>
+        <v>1.304694119921053</v>
       </c>
       <c r="G22">
-        <v>1.076653969790704</v>
+        <v>0.772116960432737</v>
       </c>
       <c r="H22">
-        <v>1.138874882531725</v>
+        <v>1.598563466323685</v>
       </c>
       <c r="I22">
-        <v>0.6604641208295891</v>
+        <v>1.304694119921053</v>
       </c>
       <c r="J22">
-        <v>0.9407419295904441</v>
+        <v>1.028328058947368</v>
       </c>
       <c r="K22">
-        <v>0.6604641208295891</v>
+        <v>1.304694119921053</v>
       </c>
       <c r="L22">
-        <v>1.149725554810864</v>
+        <v>0.964803806526316</v>
       </c>
       <c r="M22">
-        <v>1.103821169623211</v>
+        <v>0.5128112849997369</v>
       </c>
       <c r="N22">
-        <v>1.103821169623211</v>
+        <v>0.5128112849997369</v>
       </c>
       <c r="O22">
-        <v>1.094765436345708</v>
+        <v>0.5992465101440704</v>
       </c>
       <c r="P22">
-        <v>0.9560354866920036</v>
+        <v>0.7767722299735089</v>
       </c>
       <c r="Q22">
-        <v>0.9560354866920036</v>
+        <v>0.7767722299735089</v>
       </c>
       <c r="R22">
-        <v>0.8821426452264</v>
+        <v>0.9087527024603949</v>
       </c>
       <c r="S22">
-        <v>0.8821426452264</v>
+        <v>0.9087527024603949</v>
       </c>
       <c r="T22">
-        <v>1.004062873664814</v>
+        <v>0.9548875292707194</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.8486630064466159</v>
+        <v>1.185810061099715</v>
       </c>
       <c r="D23">
-        <v>0.669356081706832</v>
+        <v>0.6377965460857161</v>
       </c>
       <c r="E23">
-        <v>0.8486630064466159</v>
+        <v>1.185810061099715</v>
       </c>
       <c r="F23">
-        <v>1.532267258639387</v>
+        <v>1.427136596211693</v>
       </c>
       <c r="G23">
-        <v>1.230359668113492</v>
+        <v>1.207130680221456</v>
       </c>
       <c r="H23">
-        <v>0.08048465139390691</v>
+        <v>0.09327136695317681</v>
       </c>
       <c r="I23">
-        <v>1.532267258639387</v>
+        <v>1.427136596211693</v>
       </c>
       <c r="J23">
-        <v>0.9583033382359376</v>
+        <v>0.9867270985990664</v>
       </c>
       <c r="K23">
-        <v>1.532267258639387</v>
+        <v>1.427136596211693</v>
       </c>
       <c r="L23">
-        <v>0.669356081706832</v>
+        <v>0.6377965460857161</v>
       </c>
       <c r="M23">
-        <v>0.7590095440767239</v>
+        <v>0.9118033035927153</v>
       </c>
       <c r="N23">
-        <v>0.7590095440767239</v>
+        <v>0.9118033035927153</v>
       </c>
       <c r="O23">
-        <v>0.9161262520889801</v>
+        <v>1.010245762468962</v>
       </c>
       <c r="P23">
-        <v>1.016762115597611</v>
+        <v>1.083581067799041</v>
       </c>
       <c r="Q23">
-        <v>1.016762115597611</v>
+        <v>1.083581067799041</v>
       </c>
       <c r="R23">
-        <v>1.145638401358055</v>
+        <v>1.169469949902204</v>
       </c>
       <c r="S23">
-        <v>1.145638401358055</v>
+        <v>1.169469949902204</v>
       </c>
       <c r="T23">
-        <v>0.886572334089362</v>
+        <v>0.9229787248618037</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.430676343334622</v>
+        <v>1.057916784435557</v>
       </c>
       <c r="D24">
-        <v>1.136867111548494</v>
+        <v>1.149725554810864</v>
       </c>
       <c r="E24">
-        <v>1.430676343334622</v>
+        <v>1.057916784435557</v>
       </c>
       <c r="F24">
-        <v>0.7370958989984403</v>
+        <v>0.6604641208295891</v>
       </c>
       <c r="G24">
-        <v>0.9647252935279279</v>
+        <v>1.076653969790704</v>
       </c>
       <c r="H24">
-        <v>1.0699870435726</v>
+        <v>1.138874882531725</v>
       </c>
       <c r="I24">
-        <v>0.7370958989984403</v>
+        <v>0.6604641208295891</v>
       </c>
       <c r="J24">
-        <v>0.9929843792938187</v>
+        <v>0.9407419295904441</v>
       </c>
       <c r="K24">
-        <v>0.7370958989984403</v>
+        <v>0.6604641208295891</v>
       </c>
       <c r="L24">
-        <v>1.136867111548494</v>
+        <v>1.149725554810864</v>
       </c>
       <c r="M24">
-        <v>1.283771727441558</v>
+        <v>1.103821169623211</v>
       </c>
       <c r="N24">
-        <v>1.283771727441558</v>
+        <v>1.103821169623211</v>
       </c>
       <c r="O24">
-        <v>1.177422916137015</v>
+        <v>1.094765436345708</v>
       </c>
       <c r="P24">
-        <v>1.101546451293852</v>
+        <v>0.9560354866920036</v>
       </c>
       <c r="Q24">
-        <v>1.101546451293852</v>
+        <v>0.9560354866920036</v>
       </c>
       <c r="R24">
-        <v>1.010433813219999</v>
+        <v>0.8821426452264</v>
       </c>
       <c r="S24">
-        <v>1.010433813219999</v>
+        <v>0.8821426452264</v>
       </c>
       <c r="T24">
-        <v>1.055389345045984</v>
+        <v>1.004062873664814</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.4791380852406496</v>
+        <v>0.8486630064466159</v>
       </c>
       <c r="D25">
-        <v>0.6986063609290358</v>
+        <v>0.669356081706832</v>
       </c>
       <c r="E25">
-        <v>0.4791380852406496</v>
+        <v>0.8486630064466159</v>
       </c>
       <c r="F25">
-        <v>1.594393200760102</v>
+        <v>1.532267258639387</v>
       </c>
       <c r="G25">
-        <v>1.297912604269346</v>
+        <v>1.230359668113492</v>
       </c>
       <c r="H25">
-        <v>0.0701207328903507</v>
+        <v>0.08048465139390691</v>
       </c>
       <c r="I25">
-        <v>1.594393200760102</v>
+        <v>1.532267258639387</v>
       </c>
       <c r="J25">
-        <v>0.9452665786330776</v>
+        <v>0.9583033382359376</v>
       </c>
       <c r="K25">
-        <v>1.594393200760102</v>
+        <v>1.532267258639387</v>
       </c>
       <c r="L25">
-        <v>0.6986063609290358</v>
+        <v>0.669356081706832</v>
       </c>
       <c r="M25">
-        <v>0.5888722230848427</v>
+        <v>0.7590095440767239</v>
       </c>
       <c r="N25">
-        <v>0.5888722230848427</v>
+        <v>0.7590095440767239</v>
       </c>
       <c r="O25">
-        <v>0.8252190168130106</v>
+        <v>0.9161262520889801</v>
       </c>
       <c r="P25">
-        <v>0.924045882309929</v>
+        <v>1.016762115597611</v>
       </c>
       <c r="Q25">
-        <v>0.9240458823099291</v>
+        <v>1.016762115597611</v>
       </c>
       <c r="R25">
-        <v>1.091632711922472</v>
+        <v>1.145638401358055</v>
       </c>
       <c r="S25">
-        <v>1.091632711922472</v>
+        <v>1.145638401358055</v>
       </c>
       <c r="T25">
-        <v>0.847572927120427</v>
+        <v>0.886572334089362</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>1.862991747741879</v>
+        <v>1.430676343334622</v>
       </c>
       <c r="D26">
-        <v>1.121573505332334</v>
+        <v>1.136867111548494</v>
       </c>
       <c r="E26">
-        <v>1.862991747741879</v>
+        <v>1.430676343334622</v>
       </c>
       <c r="F26">
-        <v>0.7955784075114233</v>
+        <v>0.7370958989984403</v>
       </c>
       <c r="G26">
-        <v>0.8607691206596199</v>
+        <v>0.9647252935279279</v>
       </c>
       <c r="H26">
-        <v>0.9934246742941145</v>
+        <v>1.0699870435726</v>
       </c>
       <c r="I26">
-        <v>0.7955784075114233</v>
+        <v>0.7370958989984403</v>
       </c>
       <c r="J26">
-        <v>1.02853683335039</v>
+        <v>0.9929843792938187</v>
       </c>
       <c r="K26">
-        <v>0.7955784075114233</v>
+        <v>0.7370958989984403</v>
       </c>
       <c r="L26">
-        <v>1.121573505332334</v>
+        <v>1.136867111548494</v>
       </c>
       <c r="M26">
-        <v>1.492282626537107</v>
+        <v>1.283771727441558</v>
       </c>
       <c r="N26">
-        <v>1.492282626537107</v>
+        <v>1.283771727441558</v>
       </c>
       <c r="O26">
-        <v>1.281778124577944</v>
+        <v>1.177422916137015</v>
       </c>
       <c r="P26">
-        <v>1.260047886861879</v>
+        <v>1.101546451293852</v>
       </c>
       <c r="Q26">
-        <v>1.260047886861879</v>
+        <v>1.101546451293852</v>
       </c>
       <c r="R26">
-        <v>1.143930517024265</v>
+        <v>1.010433813219999</v>
       </c>
       <c r="S26">
-        <v>1.143930517024265</v>
+        <v>1.010433813219999</v>
       </c>
       <c r="T26">
-        <v>1.110479048148293</v>
+        <v>1.055389345045984</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.3193098787262178</v>
+        <v>0.4791380852406496</v>
       </c>
       <c r="D27">
-        <v>0.8718084763750074</v>
+        <v>0.6986063609290358</v>
       </c>
       <c r="E27">
-        <v>0.3193098787262178</v>
+        <v>0.4791380852406496</v>
       </c>
       <c r="F27">
-        <v>1.088691044207615</v>
+        <v>1.594393200760102</v>
       </c>
       <c r="G27">
-        <v>1.041926674804902</v>
+        <v>1.297912604269346</v>
       </c>
       <c r="H27">
-        <v>1.696423257412522</v>
+        <v>0.0701207328903507</v>
       </c>
       <c r="I27">
-        <v>1.088691044207615</v>
+        <v>1.594393200760102</v>
       </c>
       <c r="J27">
-        <v>0.9104736369775364</v>
+        <v>0.9452665786330776</v>
       </c>
       <c r="K27">
-        <v>1.088691044207615</v>
+        <v>1.594393200760102</v>
       </c>
       <c r="L27">
-        <v>0.8718084763750074</v>
+        <v>0.6986063609290358</v>
       </c>
       <c r="M27">
-        <v>0.5955591775506126</v>
+        <v>0.5888722230848427</v>
       </c>
       <c r="N27">
-        <v>0.5955591775506126</v>
+        <v>0.5888722230848427</v>
       </c>
       <c r="O27">
-        <v>0.7443483433020424</v>
+        <v>0.8252190168130106</v>
       </c>
       <c r="P27">
-        <v>0.7599364664362801</v>
+        <v>0.924045882309929</v>
       </c>
       <c r="Q27">
-        <v>0.7599364664362801</v>
+        <v>0.9240458823099291</v>
       </c>
       <c r="R27">
-        <v>0.8421251108791139</v>
+        <v>1.091632711922472</v>
       </c>
       <c r="S27">
-        <v>0.8421251108791139</v>
+        <v>1.091632711922472</v>
       </c>
       <c r="T27">
-        <v>0.9881054947506334</v>
+        <v>0.847572927120427</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>1.675443622296288</v>
+        <v>1.862991747741879</v>
       </c>
       <c r="D28">
-        <v>1.18567542743736</v>
+        <v>1.121573505332334</v>
       </c>
       <c r="E28">
-        <v>1.675443622296288</v>
+        <v>1.862991747741879</v>
       </c>
       <c r="F28">
-        <v>0.5457036645790778</v>
+        <v>0.7955784075114233</v>
       </c>
       <c r="G28">
-        <v>0.6375068461390535</v>
+        <v>0.8607691206596199</v>
       </c>
       <c r="H28">
-        <v>0.3843408360140807</v>
+        <v>0.9934246742941145</v>
       </c>
       <c r="I28">
-        <v>0.5457036645790778</v>
+        <v>0.7955784075114233</v>
       </c>
       <c r="J28">
-        <v>1.336036590370925</v>
+        <v>1.02853683335039</v>
       </c>
       <c r="K28">
-        <v>0.5457036645790778</v>
+        <v>0.7955784075114233</v>
       </c>
       <c r="L28">
-        <v>1.18567542743736</v>
+        <v>1.121573505332334</v>
       </c>
       <c r="M28">
-        <v>1.430559524866824</v>
+        <v>1.492282626537107</v>
       </c>
       <c r="N28">
-        <v>1.430559524866824</v>
+        <v>1.492282626537107</v>
       </c>
       <c r="O28">
-        <v>1.166208631957567</v>
+        <v>1.281778124577944</v>
       </c>
       <c r="P28">
-        <v>1.135607571437575</v>
+        <v>1.260047886861879</v>
       </c>
       <c r="Q28">
-        <v>1.135607571437575</v>
+        <v>1.260047886861879</v>
       </c>
       <c r="R28">
-        <v>0.9881315947229508</v>
+        <v>1.143930517024265</v>
       </c>
       <c r="S28">
-        <v>0.9881315947229508</v>
+        <v>1.143930517024265</v>
       </c>
       <c r="T28">
-        <v>0.9607844978061307</v>
+        <v>1.110479048148293</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>0.3193098787262178</v>
+      </c>
+      <c r="D29">
+        <v>0.8718084763750074</v>
+      </c>
+      <c r="E29">
+        <v>0.3193098787262178</v>
+      </c>
+      <c r="F29">
+        <v>1.088691044207615</v>
+      </c>
+      <c r="G29">
+        <v>1.041926674804902</v>
+      </c>
+      <c r="H29">
+        <v>1.696423257412522</v>
+      </c>
+      <c r="I29">
+        <v>1.088691044207615</v>
+      </c>
+      <c r="J29">
+        <v>0.9104736369775364</v>
+      </c>
+      <c r="K29">
+        <v>1.088691044207615</v>
+      </c>
+      <c r="L29">
+        <v>0.8718084763750074</v>
+      </c>
+      <c r="M29">
+        <v>0.5955591775506126</v>
+      </c>
+      <c r="N29">
+        <v>0.5955591775506126</v>
+      </c>
+      <c r="O29">
+        <v>0.7443483433020424</v>
+      </c>
+      <c r="P29">
+        <v>0.7599364664362801</v>
+      </c>
+      <c r="Q29">
+        <v>0.7599364664362801</v>
+      </c>
+      <c r="R29">
+        <v>0.8421251108791139</v>
+      </c>
+      <c r="S29">
+        <v>0.8421251108791139</v>
+      </c>
+      <c r="T29">
+        <v>0.9881054947506334</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.675443622296288</v>
+      </c>
+      <c r="D30">
+        <v>1.18567542743736</v>
+      </c>
+      <c r="E30">
+        <v>1.675443622296288</v>
+      </c>
+      <c r="F30">
+        <v>0.5457036645790778</v>
+      </c>
+      <c r="G30">
+        <v>0.6375068461390535</v>
+      </c>
+      <c r="H30">
+        <v>0.3843408360140807</v>
+      </c>
+      <c r="I30">
+        <v>0.5457036645790778</v>
+      </c>
+      <c r="J30">
+        <v>1.336036590370925</v>
+      </c>
+      <c r="K30">
+        <v>0.5457036645790778</v>
+      </c>
+      <c r="L30">
+        <v>1.18567542743736</v>
+      </c>
+      <c r="M30">
+        <v>1.430559524866824</v>
+      </c>
+      <c r="N30">
+        <v>1.430559524866824</v>
+      </c>
+      <c r="O30">
+        <v>1.166208631957567</v>
+      </c>
+      <c r="P30">
+        <v>1.135607571437575</v>
+      </c>
+      <c r="Q30">
+        <v>1.135607571437575</v>
+      </c>
+      <c r="R30">
+        <v>0.9881315947229508</v>
+      </c>
+      <c r="S30">
+        <v>0.9881315947229508</v>
+      </c>
+      <c r="T30">
+        <v>0.9607844978061307</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>3.717338547866604</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>0.5068263354289442</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>3.717338547866604</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>0.7227914315722015</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>0.8493906747428848</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>0.4640247814059301</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>0.7227914315722015</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>1.032458020460697</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>0.7227914315722015</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>0.5068263354289442</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>2.112082441647774</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>2.112082441647774</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>1.691185186012811</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>1.64898543828925</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>1.64898543828925</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>1.417436936609988</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.417436936609988</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>1.215471631912877</v>
       </c>
     </row>
